--- a/teaching/traditional_assets/database/data/germany/germany_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_precious_metals.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="mun_ags" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0458</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.135</v>
+        <v>-0.00162</v>
       </c>
       <c r="G2">
-        <v>0.005211835911230665</v>
+        <v>0.008798594668907049</v>
       </c>
       <c r="H2">
-        <v>0.003934095494283792</v>
+        <v>0.007943175742763309</v>
       </c>
       <c r="I2">
-        <v>-0.0001045829806485993</v>
+        <v>0.004814575504290477</v>
       </c>
       <c r="J2">
-        <v>-0.0001003735156774931</v>
+        <v>0.004237590662109634</v>
       </c>
       <c r="K2">
-        <v>19.1</v>
+        <v>22.2</v>
       </c>
       <c r="L2">
-        <v>0.02140775610849585</v>
+        <v>0.01695562514320629</v>
       </c>
       <c r="M2">
-        <v>10.9691</v>
+        <v>10.7296</v>
       </c>
       <c r="N2">
-        <v>0.02063412340105342</v>
+        <v>0.01514197008185154</v>
       </c>
       <c r="O2">
-        <v>0.5742984293193717</v>
+        <v>0.4833153153153154</v>
       </c>
       <c r="P2">
-        <v>10.9691</v>
+        <v>10.7296</v>
       </c>
       <c r="Q2">
-        <v>0.02063412340105342</v>
+        <v>0.01514197008185154</v>
       </c>
       <c r="R2">
-        <v>0.5742984293193717</v>
+        <v>0.4833153153153154</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -645,61 +647,61 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.07123460603112475</v>
+        <v>0.05026078971047382</v>
       </c>
       <c r="Z2">
-        <v>505.0537423599787</v>
+        <v>1112.989317858063</v>
       </c>
       <c r="AA2">
-        <v>-0.05069401972674591</v>
+        <v>4.716393140383097</v>
       </c>
       <c r="AB2">
-        <v>0.07106405254765341</v>
+        <v>0.05019976303287207</v>
       </c>
       <c r="AC2">
-        <v>-0.1217580722743993</v>
+        <v>4.666193377350226</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.766544676673401</v>
+        <v>1.176381461162391</v>
       </c>
       <c r="AF2">
-        <v>1.766544676673401</v>
+        <v>1.176381461162391</v>
       </c>
       <c r="AG2">
-        <v>1.766544676673401</v>
+        <v>1.176381461162391</v>
       </c>
       <c r="AH2">
-        <v>0.003312065022271466</v>
+        <v>0.001657397304120861</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.003312065022271466</v>
+        <v>0.001657397304120861</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2">
-        <v>2.3</v>
+        <v>4.66</v>
       </c>
       <c r="AM2">
-        <v>-20.4</v>
+        <v>-18.34</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>-0.3260869565217391</v>
+        <v>1.349785407725322</v>
       </c>
       <c r="AP2">
-        <v>0.3908284682905755</v>
+        <v>0.1104687258110987</v>
       </c>
       <c r="AQ2">
-        <v>0.03676470588235294</v>
+        <v>-0.3429661941112323</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +721,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0458</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="E3">
-        <v>-0.135</v>
+        <v>-0.00162</v>
       </c>
       <c r="G3">
-        <v>0.005211835911230665</v>
+        <v>0.008798594668907049</v>
       </c>
       <c r="H3">
-        <v>0.003934095494283792</v>
+        <v>0.007943175742763309</v>
       </c>
       <c r="I3">
-        <v>-0.0001045829806485993</v>
+        <v>0.004814575504290477</v>
       </c>
       <c r="J3">
-        <v>-0.0001003735156774931</v>
+        <v>0.004237590662109634</v>
       </c>
       <c r="K3">
-        <v>19.1</v>
+        <v>22.2</v>
       </c>
       <c r="L3">
-        <v>0.02140775610849585</v>
+        <v>0.01695562514320629</v>
       </c>
       <c r="M3">
-        <v>10.9691</v>
+        <v>10.7296</v>
       </c>
       <c r="N3">
-        <v>0.02063412340105342</v>
+        <v>0.01514197008185154</v>
       </c>
       <c r="O3">
-        <v>0.5742984293193717</v>
+        <v>0.4833153153153154</v>
       </c>
       <c r="P3">
-        <v>10.9691</v>
+        <v>10.7296</v>
       </c>
       <c r="Q3">
-        <v>0.02063412340105342</v>
+        <v>0.01514197008185154</v>
       </c>
       <c r="R3">
-        <v>0.5742984293193717</v>
+        <v>0.4833153153153154</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,61 +775,8776 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.07123460603112475</v>
+        <v>0.05026078971047382</v>
       </c>
       <c r="Z3">
-        <v>505.0537423599787</v>
+        <v>1112.989317858063</v>
       </c>
       <c r="AA3">
-        <v>-0.05069401972674591</v>
+        <v>4.716393140383097</v>
       </c>
       <c r="AB3">
-        <v>0.07106405254765341</v>
+        <v>0.05019976303287207</v>
       </c>
       <c r="AC3">
-        <v>-0.1217580722743993</v>
+        <v>4.666193377350226</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.766544676673401</v>
+        <v>1.176381461162391</v>
       </c>
       <c r="AF3">
-        <v>1.766544676673401</v>
+        <v>1.176381461162391</v>
       </c>
       <c r="AG3">
-        <v>1.766544676673401</v>
+        <v>1.176381461162391</v>
       </c>
       <c r="AH3">
-        <v>0.003312065022271466</v>
+        <v>0.001657397304120861</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.003312065022271466</v>
+        <v>0.001657397304120861</v>
       </c>
       <c r="AK3">
         <v>1</v>
       </c>
       <c r="AL3">
-        <v>2.3</v>
+        <v>4.66</v>
       </c>
       <c r="AM3">
-        <v>-20.4</v>
+        <v>-18.34</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>-0.3260869565217391</v>
+        <v>1.349785407725322</v>
       </c>
       <c r="AP3">
-        <v>0.3908284682905755</v>
+        <v>0.1104687258110987</v>
       </c>
       <c r="AQ3">
-        <v>0.03676470588235294</v>
+        <v>-0.3429661941112323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Allgemeine Gold- und Silberscheideanstalt AG (MUN:AGS)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MUN:AGS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Precious Metals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.00165739730412086</v>
+      </c>
+      <c r="F2">
+        <v>0.09</v>
+      </c>
+      <c r="G2">
+        <v>708.6</v>
+      </c>
+      <c r="H2">
+        <v>654.758767503272</v>
+      </c>
+      <c r="I2">
+        <v>709.776381461162</v>
+      </c>
+      <c r="J2">
+        <v>718.638641834776</v>
+      </c>
+      <c r="K2">
+        <v>1.17638146116239</v>
+      </c>
+      <c r="L2">
+        <v>63.8798743315046</v>
+      </c>
+      <c r="M2">
+        <v>0.0501997630328721</v>
+      </c>
+      <c r="N2">
+        <v>0.0496953866632811</v>
+      </c>
+      <c r="O2">
+        <v>0.01344</v>
+      </c>
+      <c r="P2">
+        <v>0.01582</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Caa/CCC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0502607897104738</v>
+      </c>
+      <c r="T2">
+        <v>0.0530456996299792</v>
+      </c>
+      <c r="U2">
+        <v>0.867813341323598</v>
+      </c>
+      <c r="V2">
+        <v>0.926815670126679</v>
+      </c>
+      <c r="W2">
+        <v>4.536307625749858</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>708.6</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0192</v>
+      </c>
+      <c r="AD2">
+        <v>0.3</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>10.649</v>
+      </c>
+      <c r="AH2">
+        <v>4.1</v>
+      </c>
+      <c r="AI2">
+        <v>8.881784197001252e-16</v>
+      </c>
+      <c r="AJ2">
+        <v>1.176381461162391</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>4.66</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05021324425825395</v>
+      </c>
+      <c r="C2">
+        <v>709.5425047412227</v>
+      </c>
+      <c r="D2">
+        <v>709.5425047412227</v>
+      </c>
+      <c r="E2">
+        <v>-1.176381461162391</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>708.6</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>10.649</v>
+      </c>
+      <c r="K2">
+        <v>4.1</v>
+      </c>
+      <c r="L2">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="O2">
+        <v>1.9647</v>
+      </c>
+      <c r="P2">
+        <v>4.584300000000001</v>
+      </c>
+      <c r="Q2">
+        <v>8.6843</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05021324425825395</v>
+      </c>
+      <c r="T2">
+        <v>0.8668060224206346</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.3</v>
+      </c>
+      <c r="W2">
+        <v>0.01134</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05011090452547919</v>
+      </c>
+      <c r="C3">
+        <v>704.224029848821</v>
+      </c>
+      <c r="D3">
+        <v>711.3217936634327</v>
+      </c>
+      <c r="E3">
+        <v>5.921382353449234</v>
+      </c>
+      <c r="F3">
+        <v>7.097763814611624</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>708.6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>10.649</v>
+      </c>
+      <c r="K3">
+        <v>4.1</v>
+      </c>
+      <c r="L3">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.1149837737967083</v>
+      </c>
+      <c r="N3">
+        <v>6.434016226203293</v>
+      </c>
+      <c r="O3">
+        <v>1.930204867860988</v>
+      </c>
+      <c r="P3">
+        <v>4.503811358342306</v>
+      </c>
+      <c r="Q3">
+        <v>8.603811358342305</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05050252982371635</v>
+      </c>
+      <c r="T3">
+        <v>0.8729349538922957</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.3</v>
+      </c>
+      <c r="W3">
+        <v>0.01134</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>56.95586241219266</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05000856479270443</v>
+      </c>
+      <c r="C4">
+        <v>698.9145010813321</v>
+      </c>
+      <c r="D4">
+        <v>713.1100287105553</v>
+      </c>
+      <c r="E4">
+        <v>13.01914616806086</v>
+      </c>
+      <c r="F4">
+        <v>14.19552762922325</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>708.6</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10.649</v>
+      </c>
+      <c r="K4">
+        <v>4.1</v>
+      </c>
+      <c r="L4">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.2299675475934166</v>
+      </c>
+      <c r="N4">
+        <v>6.319032452406585</v>
+      </c>
+      <c r="O4">
+        <v>1.895709735721975</v>
+      </c>
+      <c r="P4">
+        <v>4.423322716684609</v>
+      </c>
+      <c r="Q4">
+        <v>8.523322716684609</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05079771917622901</v>
+      </c>
+      <c r="T4">
+        <v>0.8791889655980722</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.3</v>
+      </c>
+      <c r="W4">
+        <v>0.01134</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>28.47793120609633</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04990622505992966</v>
+      </c>
+      <c r="C5">
+        <v>693.613986079422</v>
+      </c>
+      <c r="D5">
+        <v>714.9072775232569</v>
+      </c>
+      <c r="E5">
+        <v>20.11690998267248</v>
+      </c>
+      <c r="F5">
+        <v>21.29329144383487</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>708.6</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10.649</v>
+      </c>
+      <c r="K5">
+        <v>4.1</v>
+      </c>
+      <c r="L5">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.3449513213901249</v>
+      </c>
+      <c r="N5">
+        <v>6.204048678609876</v>
+      </c>
+      <c r="O5">
+        <v>1.861214603582963</v>
+      </c>
+      <c r="P5">
+        <v>4.342834075026913</v>
+      </c>
+      <c r="Q5">
+        <v>8.442834075026912</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05109899490714398</v>
+      </c>
+      <c r="T5">
+        <v>0.8855719259988133</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.3</v>
+      </c>
+      <c r="W5">
+        <v>0.01134</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>18.98528747073088</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.0498038853271549</v>
+      </c>
+      <c r="C6">
+        <v>688.3225531673771</v>
+      </c>
+      <c r="D6">
+        <v>716.7136084258236</v>
+      </c>
+      <c r="E6">
+        <v>27.21467379728411</v>
+      </c>
+      <c r="F6">
+        <v>28.3910552584465</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>708.6</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10.649</v>
+      </c>
+      <c r="K6">
+        <v>4.1</v>
+      </c>
+      <c r="L6">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.4599350951868332</v>
+      </c>
+      <c r="N6">
+        <v>6.089064904813168</v>
+      </c>
+      <c r="O6">
+        <v>1.82671947144395</v>
+      </c>
+      <c r="P6">
+        <v>4.262345433369218</v>
+      </c>
+      <c r="Q6">
+        <v>8.362345433369217</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05140654721578636</v>
+      </c>
+      <c r="T6">
+        <v>0.8920878647412364</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.3</v>
+      </c>
+      <c r="W6">
+        <v>0.01134</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>14.23896560304816</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04983454559438013</v>
+      </c>
+      <c r="C7">
+        <v>680.6826682943923</v>
+      </c>
+      <c r="D7">
+        <v>716.1714873674505</v>
+      </c>
+      <c r="E7">
+        <v>34.31243761189572</v>
+      </c>
+      <c r="F7">
+        <v>35.48881907305812</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>708.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10.649</v>
+      </c>
+      <c r="K7">
+        <v>4.1</v>
+      </c>
+      <c r="L7">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.7097763814611623</v>
+      </c>
+      <c r="N7">
+        <v>5.839223618538839</v>
+      </c>
+      <c r="O7">
+        <v>1.751767085561652</v>
+      </c>
+      <c r="P7">
+        <v>4.087456532977187</v>
+      </c>
+      <c r="Q7">
+        <v>8.187456532977187</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05172057430987383</v>
+      </c>
+      <c r="T7">
+        <v>0.8987409811413948</v>
+      </c>
+      <c r="U7">
+        <v>0.02</v>
+      </c>
+      <c r="V7">
+        <v>0.3</v>
+      </c>
+      <c r="W7">
+        <v>0.014</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>9.226849710775213</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04980500586160538</v>
+      </c>
+      <c r="C8">
+        <v>674.1071983026732</v>
+      </c>
+      <c r="D8">
+        <v>716.6937811903429</v>
+      </c>
+      <c r="E8">
+        <v>41.41020142650735</v>
+      </c>
+      <c r="F8">
+        <v>42.58658288766974</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>708.6</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10.649</v>
+      </c>
+      <c r="K8">
+        <v>4.1</v>
+      </c>
+      <c r="L8">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.8985768989298316</v>
+      </c>
+      <c r="N8">
+        <v>5.65042310107017</v>
+      </c>
+      <c r="O8">
+        <v>1.695126930321051</v>
+      </c>
+      <c r="P8">
+        <v>3.955296170749119</v>
+      </c>
+      <c r="Q8">
+        <v>8.055296170749118</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.05204128283149509</v>
+      </c>
+      <c r="T8">
+        <v>0.9055356532096417</v>
+      </c>
+      <c r="U8">
+        <v>0.0211</v>
+      </c>
+      <c r="V8">
+        <v>0.3</v>
+      </c>
+      <c r="W8">
+        <v>0.01477</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>7.288190924782946</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04981046612883062</v>
+      </c>
+      <c r="C9">
+        <v>666.9128337836529</v>
+      </c>
+      <c r="D9">
+        <v>716.5971804859342</v>
+      </c>
+      <c r="E9">
+        <v>48.50796524111898</v>
+      </c>
+      <c r="F9">
+        <v>49.68434670228137</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>708.6</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10.649</v>
+      </c>
+      <c r="K9">
+        <v>4.1</v>
+      </c>
+      <c r="L9">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M9">
+        <v>1.122866235471559</v>
+      </c>
+      <c r="N9">
+        <v>5.426133764528442</v>
+      </c>
+      <c r="O9">
+        <v>1.627840129358533</v>
+      </c>
+      <c r="P9">
+        <v>3.79829363516991</v>
+      </c>
+      <c r="Q9">
+        <v>7.898293635169909</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.05236888831057056</v>
+      </c>
+      <c r="T9">
+        <v>0.9124764472578509</v>
+      </c>
+      <c r="U9">
+        <v>0.0226</v>
+      </c>
+      <c r="V9">
+        <v>0.3</v>
+      </c>
+      <c r="W9">
+        <v>0.01582</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>5.832395518821245</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04975292639605586</v>
+      </c>
+      <c r="C10">
+        <v>660.8343487690125</v>
+      </c>
+      <c r="D10">
+        <v>717.6164592859055</v>
+      </c>
+      <c r="E10">
+        <v>55.6057290557306</v>
+      </c>
+      <c r="F10">
+        <v>56.78211051689299</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>708.6</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10.649</v>
+      </c>
+      <c r="K10">
+        <v>4.1</v>
+      </c>
+      <c r="L10">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1.283275697681782</v>
+      </c>
+      <c r="N10">
+        <v>5.26572430231822</v>
+      </c>
+      <c r="O10">
+        <v>1.579717290695466</v>
+      </c>
+      <c r="P10">
+        <v>3.686007011622754</v>
+      </c>
+      <c r="Q10">
+        <v>7.786007011622754</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05270361564788681</v>
+      </c>
+      <c r="T10">
+        <v>0.9195681281331951</v>
+      </c>
+      <c r="U10">
+        <v>0.0226</v>
+      </c>
+      <c r="V10">
+        <v>0.3</v>
+      </c>
+      <c r="W10">
+        <v>0.01582</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>5.10334607896859</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.0496953866632811</v>
+      </c>
+      <c r="C11">
+        <v>654.7587675032715</v>
+      </c>
+      <c r="D11">
+        <v>718.6386418347762</v>
+      </c>
+      <c r="E11">
+        <v>62.70349287034222</v>
+      </c>
+      <c r="F11">
+        <v>63.87987433150461</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>708.6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10.649</v>
+      </c>
+      <c r="K11">
+        <v>4.1</v>
+      </c>
+      <c r="L11">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1.443685159892004</v>
+      </c>
+      <c r="N11">
+        <v>5.105314840107997</v>
+      </c>
+      <c r="O11">
+        <v>1.531594452032399</v>
+      </c>
+      <c r="P11">
+        <v>3.573720388075598</v>
+      </c>
+      <c r="Q11">
+        <v>7.673720388075598</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05304569962997922</v>
+      </c>
+      <c r="T11">
+        <v>0.9268156701266785</v>
+      </c>
+      <c r="U11">
+        <v>0.0226</v>
+      </c>
+      <c r="V11">
+        <v>0.3</v>
+      </c>
+      <c r="W11">
+        <v>0.01582</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>4.536307625749858</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05637619753965127</v>
+      </c>
+      <c r="C12">
+        <v>545.6755183378984</v>
+      </c>
+      <c r="D12">
+        <v>616.6531564840146</v>
+      </c>
+      <c r="E12">
+        <v>69.80125668495384</v>
+      </c>
+      <c r="F12">
+        <v>70.97763814611623</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>708.6</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10.649</v>
+      </c>
+      <c r="K12">
+        <v>4.1</v>
+      </c>
+      <c r="L12">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M12">
+        <v>7.736562557926669</v>
+      </c>
+      <c r="N12">
+        <v>-1.187562557926668</v>
+      </c>
+      <c r="O12">
+        <v>-0.3562687673780005</v>
+      </c>
+      <c r="P12">
+        <v>-0.8312937905486677</v>
+      </c>
+      <c r="Q12">
+        <v>3.268706209451332</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0536047249476487</v>
+      </c>
+      <c r="T12">
+        <v>0.938659426856964</v>
+      </c>
+      <c r="U12">
+        <v>0.109</v>
+      </c>
+      <c r="V12">
+        <v>0.2539499920396847</v>
+      </c>
+      <c r="W12">
+        <v>0.08131945086767436</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.8464999734656157</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06103641397565374</v>
+      </c>
+      <c r="C13">
+        <v>483.032018854171</v>
+      </c>
+      <c r="D13">
+        <v>561.1074208148989</v>
+      </c>
+      <c r="E13">
+        <v>76.89902049956547</v>
+      </c>
+      <c r="F13">
+        <v>78.07540196072786</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>708.6</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10.649</v>
+      </c>
+      <c r="K13">
+        <v>4.1</v>
+      </c>
+      <c r="L13">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M13">
+        <v>10.94617135489404</v>
+      </c>
+      <c r="N13">
+        <v>-4.397171354894043</v>
+      </c>
+      <c r="O13">
+        <v>-1.319151406468213</v>
+      </c>
+      <c r="P13">
+        <v>-3.078019948425831</v>
+      </c>
+      <c r="Q13">
+        <v>1.021980051574169</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05436232459425427</v>
+      </c>
+      <c r="T13">
+        <v>0.9547102668274211</v>
+      </c>
+      <c r="U13">
+        <v>0.1402</v>
+      </c>
+      <c r="V13">
+        <v>0.179487414941808</v>
+      </c>
+      <c r="W13">
+        <v>0.1150358644251585</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.5982913831393601</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06234541397565375</v>
+      </c>
+      <c r="C14">
+        <v>462.0878249940927</v>
+      </c>
+      <c r="D14">
+        <v>547.2609907694322</v>
+      </c>
+      <c r="E14">
+        <v>83.99678431417709</v>
+      </c>
+      <c r="F14">
+        <v>85.17316577533948</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>708.6</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10.649</v>
+      </c>
+      <c r="K14">
+        <v>4.1</v>
+      </c>
+      <c r="L14">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M14">
+        <v>11.9412778417026</v>
+      </c>
+      <c r="N14">
+        <v>-5.392277841702594</v>
+      </c>
+      <c r="O14">
+        <v>-1.617683352510778</v>
+      </c>
+      <c r="P14">
+        <v>-3.774594489191816</v>
+      </c>
+      <c r="Q14">
+        <v>0.3254055108081841</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05487439646464354</v>
+      </c>
+      <c r="T14">
+        <v>0.9655592471322783</v>
+      </c>
+      <c r="U14">
+        <v>0.1402</v>
+      </c>
+      <c r="V14">
+        <v>0.164530130363324</v>
+      </c>
+      <c r="W14">
+        <v>0.117132875723062</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.5484337678777467</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06365441397565376</v>
+      </c>
+      <c r="C15">
+        <v>441.8105494430826</v>
+      </c>
+      <c r="D15">
+        <v>534.0814790330337</v>
+      </c>
+      <c r="E15">
+        <v>91.09454812878872</v>
+      </c>
+      <c r="F15">
+        <v>92.27092958995111</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>708.6</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>10.649</v>
+      </c>
+      <c r="K15">
+        <v>4.1</v>
+      </c>
+      <c r="L15">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M15">
+        <v>12.93638432851114</v>
+      </c>
+      <c r="N15">
+        <v>-6.387384328511143</v>
+      </c>
+      <c r="O15">
+        <v>-1.916215298553343</v>
+      </c>
+      <c r="P15">
+        <v>-4.4711690299578</v>
+      </c>
+      <c r="Q15">
+        <v>-0.3711690299577999</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05539824010216818</v>
+      </c>
+      <c r="T15">
+        <v>0.9766576292832241</v>
+      </c>
+      <c r="U15">
+        <v>0.1402</v>
+      </c>
+      <c r="V15">
+        <v>0.1518739664892222</v>
+      </c>
+      <c r="W15">
+        <v>0.118907269898211</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.5062465549640739</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07124469447955953</v>
+      </c>
+      <c r="C16">
+        <v>369.2700827164521</v>
+      </c>
+      <c r="D16">
+        <v>468.6387761210148</v>
+      </c>
+      <c r="E16">
+        <v>98.19231194340036</v>
+      </c>
+      <c r="F16">
+        <v>99.36869340456275</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>708.6</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10.649</v>
+      </c>
+      <c r="K16">
+        <v>4.1</v>
+      </c>
+      <c r="L16">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M16">
+        <v>18.25402897841818</v>
+      </c>
+      <c r="N16">
+        <v>-11.70502897841818</v>
+      </c>
+      <c r="O16">
+        <v>-3.511508693525453</v>
+      </c>
+      <c r="P16">
+        <v>-8.193520284892722</v>
+      </c>
+      <c r="Q16">
+        <v>-4.093520284892723</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05615668534045593</v>
+      </c>
+      <c r="T16">
+        <v>0.9927263843316932</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.1076310332542407</v>
+      </c>
+      <c r="W16">
+        <v>0.163928179191196</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.358770110847469</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07298869447955954</v>
+      </c>
+      <c r="C17">
+        <v>349.3394914709475</v>
+      </c>
+      <c r="D17">
+        <v>455.8059486901218</v>
+      </c>
+      <c r="E17">
+        <v>105.290075758012</v>
+      </c>
+      <c r="F17">
+        <v>106.4664572191744</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>708.6</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>10.649</v>
+      </c>
+      <c r="K17">
+        <v>4.1</v>
+      </c>
+      <c r="L17">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M17">
+        <v>19.55788819116233</v>
+      </c>
+      <c r="N17">
+        <v>-13.00888819116233</v>
+      </c>
+      <c r="O17">
+        <v>-3.902666457348698</v>
+      </c>
+      <c r="P17">
+        <v>-9.10622173381363</v>
+      </c>
+      <c r="Q17">
+        <v>-5.00622173381363</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05670794046210835</v>
+      </c>
+      <c r="T17">
+        <v>1.004405518265008</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.1004556310372913</v>
+      </c>
+      <c r="W17">
+        <v>0.1652463005784496</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.3348521034576378</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07473269447955952</v>
+      </c>
+      <c r="C18">
+        <v>330.0929757084255</v>
+      </c>
+      <c r="D18">
+        <v>443.6571967422115</v>
+      </c>
+      <c r="E18">
+        <v>112.3878395726236</v>
+      </c>
+      <c r="F18">
+        <v>113.564221033786</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>708.6</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10.649</v>
+      </c>
+      <c r="K18">
+        <v>4.1</v>
+      </c>
+      <c r="L18">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M18">
+        <v>20.86174740390648</v>
+      </c>
+      <c r="N18">
+        <v>-14.31274740390648</v>
+      </c>
+      <c r="O18">
+        <v>-4.293824221171945</v>
+      </c>
+      <c r="P18">
+        <v>-10.01892318273454</v>
+      </c>
+      <c r="Q18">
+        <v>-5.91892318273454</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05727232070570487</v>
+      </c>
+      <c r="T18">
+        <v>1.016362726815781</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.09417715409746064</v>
+      </c>
+      <c r="W18">
+        <v>0.1663996567922965</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.3139238469915354</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07647669447955953</v>
+      </c>
+      <c r="C19">
+        <v>311.4772567888057</v>
+      </c>
+      <c r="D19">
+        <v>432.1392416372033</v>
+      </c>
+      <c r="E19">
+        <v>119.4856033872352</v>
+      </c>
+      <c r="F19">
+        <v>120.6619848483976</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>708.6</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>10.649</v>
+      </c>
+      <c r="K19">
+        <v>4.1</v>
+      </c>
+      <c r="L19">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M19">
+        <v>22.16560661665064</v>
+      </c>
+      <c r="N19">
+        <v>-15.61660661665064</v>
+      </c>
+      <c r="O19">
+        <v>-4.684981984995192</v>
+      </c>
+      <c r="P19">
+        <v>-10.93162463165545</v>
+      </c>
+      <c r="Q19">
+        <v>-6.831624631655449</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05785030047324348</v>
+      </c>
+      <c r="T19">
+        <v>1.028608060873803</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.08863732150349235</v>
+      </c>
+      <c r="W19">
+        <v>0.1674173240398085</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.2954577383449745</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07822069447955951</v>
+      </c>
+      <c r="C20">
+        <v>293.4444488179169</v>
+      </c>
+      <c r="D20">
+        <v>421.2041974809261</v>
+      </c>
+      <c r="E20">
+        <v>126.5833672018468</v>
+      </c>
+      <c r="F20">
+        <v>127.7597486630092</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>708.6</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>10.649</v>
+      </c>
+      <c r="K20">
+        <v>4.1</v>
+      </c>
+      <c r="L20">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M20">
+        <v>23.46946582939479</v>
+      </c>
+      <c r="N20">
+        <v>-16.92046582939479</v>
+      </c>
+      <c r="O20">
+        <v>-5.076139748818438</v>
+      </c>
+      <c r="P20">
+        <v>-11.84432608057636</v>
+      </c>
+      <c r="Q20">
+        <v>-7.744326080576355</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05844237730828303</v>
+      </c>
+      <c r="T20">
+        <v>1.041152061616166</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.08371302586440946</v>
+      </c>
+      <c r="W20">
+        <v>0.168321917148708</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.2790434195480315</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07996469447955953</v>
+      </c>
+      <c r="C21">
+        <v>275.9513931844291</v>
+      </c>
+      <c r="D21">
+        <v>410.8089056620499</v>
+      </c>
+      <c r="E21">
+        <v>133.6811310164585</v>
+      </c>
+      <c r="F21">
+        <v>134.8575124776208</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>708.6</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10.649</v>
+      </c>
+      <c r="K21">
+        <v>4.1</v>
+      </c>
+      <c r="L21">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M21">
+        <v>24.77332504213895</v>
+      </c>
+      <c r="N21">
+        <v>-18.22432504213895</v>
+      </c>
+      <c r="O21">
+        <v>-5.467297512641685</v>
+      </c>
+      <c r="P21">
+        <v>-12.75702752949726</v>
+      </c>
+      <c r="Q21">
+        <v>-8.657027529497265</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05904907332443468</v>
+      </c>
+      <c r="T21">
+        <v>1.054005790771921</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.0793070771347037</v>
+      </c>
+      <c r="W21">
+        <v>0.1691312899303549</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.2643569237823455</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08170869447955953</v>
+      </c>
+      <c r="C22">
+        <v>258.9590892648738</v>
+      </c>
+      <c r="D22">
+        <v>400.9143655571063</v>
+      </c>
+      <c r="E22">
+        <v>140.7788948310701</v>
+      </c>
+      <c r="F22">
+        <v>141.9552762922325</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>708.6</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10.649</v>
+      </c>
+      <c r="K22">
+        <v>4.1</v>
+      </c>
+      <c r="L22">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M22">
+        <v>26.0771842548831</v>
+      </c>
+      <c r="N22">
+        <v>-19.5281842548831</v>
+      </c>
+      <c r="O22">
+        <v>-5.85845527646493</v>
+      </c>
+      <c r="P22">
+        <v>-13.66972897841817</v>
+      </c>
+      <c r="Q22">
+        <v>-9.569728978418171</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05967093674099011</v>
+      </c>
+      <c r="T22">
+        <v>1.06718086315657</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.07534172327796852</v>
+      </c>
+      <c r="W22">
+        <v>0.1698597254338372</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.2511390775932284</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08345269447955952</v>
+      </c>
+      <c r="C23">
+        <v>242.4322054642808</v>
+      </c>
+      <c r="D23">
+        <v>391.4852455711249</v>
+      </c>
+      <c r="E23">
+        <v>147.8766586456817</v>
+      </c>
+      <c r="F23">
+        <v>149.0530401068441</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>708.6</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>10.649</v>
+      </c>
+      <c r="K23">
+        <v>4.1</v>
+      </c>
+      <c r="L23">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M23">
+        <v>27.38104346762726</v>
+      </c>
+      <c r="N23">
+        <v>-20.83204346762726</v>
+      </c>
+      <c r="O23">
+        <v>-6.249613040288177</v>
+      </c>
+      <c r="P23">
+        <v>-14.58243042733908</v>
+      </c>
+      <c r="Q23">
+        <v>-10.48243042733908</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06030854353517986</v>
+      </c>
+      <c r="T23">
+        <v>1.08068948167754</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.07175402216949381</v>
+      </c>
+      <c r="W23">
+        <v>0.170518786127464</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.2391800738983128</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08519669447955953</v>
+      </c>
+      <c r="C24">
+        <v>226.338657670435</v>
+      </c>
+      <c r="D24">
+        <v>382.4894615918907</v>
+      </c>
+      <c r="E24">
+        <v>154.9744224602933</v>
+      </c>
+      <c r="F24">
+        <v>156.1508039214557</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>708.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10.649</v>
+      </c>
+      <c r="K24">
+        <v>4.1</v>
+      </c>
+      <c r="L24">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M24">
+        <v>28.68490268037142</v>
+      </c>
+      <c r="N24">
+        <v>-22.13590268037142</v>
+      </c>
+      <c r="O24">
+        <v>-6.640770804111424</v>
+      </c>
+      <c r="P24">
+        <v>-15.49513187625999</v>
+      </c>
+      <c r="Q24">
+        <v>-11.39513187625999</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.06096249922152833</v>
+      </c>
+      <c r="T24">
+        <v>1.09454447503238</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.06849247570724409</v>
+      </c>
+      <c r="W24">
+        <v>0.1711179322125793</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.2283082523574803</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08694069447955954</v>
+      </c>
+      <c r="C25">
+        <v>210.6492445218279</v>
+      </c>
+      <c r="D25">
+        <v>373.8978122578953</v>
+      </c>
+      <c r="E25">
+        <v>162.072186274905</v>
+      </c>
+      <c r="F25">
+        <v>163.2485677360673</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>708.6</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>10.649</v>
+      </c>
+      <c r="K25">
+        <v>4.1</v>
+      </c>
+      <c r="L25">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M25">
+        <v>29.98876189311557</v>
+      </c>
+      <c r="N25">
+        <v>-23.43976189311557</v>
+      </c>
+      <c r="O25">
+        <v>-7.031928567934671</v>
+      </c>
+      <c r="P25">
+        <v>-16.4078333251809</v>
+      </c>
+      <c r="Q25">
+        <v>-12.3078333251809</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.06163344076985987</v>
+      </c>
+      <c r="T25">
+        <v>1.108759338344489</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.06551454198084218</v>
+      </c>
+      <c r="W25">
+        <v>0.1716649786381193</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2183818066028071</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08868469447955954</v>
+      </c>
+      <c r="C26">
+        <v>195.3373307523321</v>
+      </c>
+      <c r="D26">
+        <v>365.683662303011</v>
+      </c>
+      <c r="E26">
+        <v>169.1699500895166</v>
+      </c>
+      <c r="F26">
+        <v>170.346331550679</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>708.6</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>10.649</v>
+      </c>
+      <c r="K26">
+        <v>4.1</v>
+      </c>
+      <c r="L26">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M26">
+        <v>31.29262110585973</v>
+      </c>
+      <c r="N26">
+        <v>-24.74362110585972</v>
+      </c>
+      <c r="O26">
+        <v>-7.423086331757917</v>
+      </c>
+      <c r="P26">
+        <v>-17.32053477410181</v>
+      </c>
+      <c r="Q26">
+        <v>-13.22053477410181</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.06232203867472644</v>
+      </c>
+      <c r="T26">
+        <v>1.123348277006916</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.06278476939830709</v>
+      </c>
+      <c r="W26">
+        <v>0.172166437861531</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.2092825646610237</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09042869447955953</v>
+      </c>
+      <c r="C27">
+        <v>180.3785713781638</v>
+      </c>
+      <c r="D27">
+        <v>357.8226667434544</v>
+      </c>
+      <c r="E27">
+        <v>176.2677139041282</v>
+      </c>
+      <c r="F27">
+        <v>177.4440953652906</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>708.6</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>10.649</v>
+      </c>
+      <c r="K27">
+        <v>4.1</v>
+      </c>
+      <c r="L27">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M27">
+        <v>32.59648031860388</v>
+      </c>
+      <c r="N27">
+        <v>-26.04748031860388</v>
+      </c>
+      <c r="O27">
+        <v>-7.814244095581164</v>
+      </c>
+      <c r="P27">
+        <v>-18.23323622302272</v>
+      </c>
+      <c r="Q27">
+        <v>-14.13323622302272</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.06302899919038946</v>
+      </c>
+      <c r="T27">
+        <v>1.138326254033675</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.06027337862237481</v>
+      </c>
+      <c r="W27">
+        <v>0.1726277803470697</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.2009112620745827</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09217269447955953</v>
+      </c>
+      <c r="C28">
+        <v>165.7506707106409</v>
+      </c>
+      <c r="D28">
+        <v>350.2925298905431</v>
+      </c>
+      <c r="E28">
+        <v>183.3654777187398</v>
+      </c>
+      <c r="F28">
+        <v>184.5418591799022</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>708.6</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>10.649</v>
+      </c>
+      <c r="K28">
+        <v>4.1</v>
+      </c>
+      <c r="L28">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M28">
+        <v>33.90033953134804</v>
+      </c>
+      <c r="N28">
+        <v>-27.35133953134804</v>
+      </c>
+      <c r="O28">
+        <v>-8.205401859404411</v>
+      </c>
+      <c r="P28">
+        <v>-19.14593767194363</v>
+      </c>
+      <c r="Q28">
+        <v>-15.04593767194363</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06375506674701635</v>
+      </c>
+      <c r="T28">
+        <v>1.153709041250346</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.05795517175228346</v>
+      </c>
+      <c r="W28">
+        <v>0.1730536349491055</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1931839058409448</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09391669447955953</v>
+      </c>
+      <c r="C29">
+        <v>151.4331711702774</v>
+      </c>
+      <c r="D29">
+        <v>343.0727941647913</v>
+      </c>
+      <c r="E29">
+        <v>190.4632415333515</v>
+      </c>
+      <c r="F29">
+        <v>191.6396229945138</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>708.6</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>10.649</v>
+      </c>
+      <c r="K29">
+        <v>4.1</v>
+      </c>
+      <c r="L29">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M29">
+        <v>35.2041987440922</v>
+      </c>
+      <c r="N29">
+        <v>-28.6551987440922</v>
+      </c>
+      <c r="O29">
+        <v>-8.596559623227659</v>
+      </c>
+      <c r="P29">
+        <v>-20.05863912086454</v>
+      </c>
+      <c r="Q29">
+        <v>-15.95863912086454</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06450102656546862</v>
+      </c>
+      <c r="T29">
+        <v>1.169513274692132</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.0558086839096063</v>
+      </c>
+      <c r="W29">
+        <v>0.1734479447658053</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1860289463653543</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09566069447955954</v>
+      </c>
+      <c r="C30">
+        <v>137.4072676894776</v>
+      </c>
+      <c r="D30">
+        <v>336.1446544986031</v>
+      </c>
+      <c r="E30">
+        <v>197.5610053479631</v>
+      </c>
+      <c r="F30">
+        <v>198.7373868091255</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>708.6</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>10.649</v>
+      </c>
+      <c r="K30">
+        <v>4.1</v>
+      </c>
+      <c r="L30">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M30">
+        <v>36.50805795683635</v>
+      </c>
+      <c r="N30">
+        <v>-29.95905795683635</v>
+      </c>
+      <c r="O30">
+        <v>-8.987717387050905</v>
+      </c>
+      <c r="P30">
+        <v>-20.97134056978545</v>
+      </c>
+      <c r="Q30">
+        <v>-16.87134056978545</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06526770748998902</v>
+      </c>
+      <c r="T30">
+        <v>1.185756514618411</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.05381551662712035</v>
+      </c>
+      <c r="W30">
+        <v>0.173814089595598</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1793850554237345</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09740469447955952</v>
+      </c>
+      <c r="C31">
+        <v>123.6556441582131</v>
+      </c>
+      <c r="D31">
+        <v>329.4907947819501</v>
+      </c>
+      <c r="E31">
+        <v>204.6587691625747</v>
+      </c>
+      <c r="F31">
+        <v>205.8351506237371</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>708.6</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>10.649</v>
+      </c>
+      <c r="K31">
+        <v>4.1</v>
+      </c>
+      <c r="L31">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M31">
+        <v>37.8119171695805</v>
+      </c>
+      <c r="N31">
+        <v>-31.2629171695805</v>
+      </c>
+      <c r="O31">
+        <v>-9.378875150874149</v>
+      </c>
+      <c r="P31">
+        <v>-21.88404201870635</v>
+      </c>
+      <c r="Q31">
+        <v>-17.78404201870634</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.06605598506027055</v>
+      </c>
+      <c r="T31">
+        <v>1.202457310598952</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.05195980915721967</v>
+      </c>
+      <c r="W31">
+        <v>0.1741549830578188</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1731993638573989</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09914869447955953</v>
+      </c>
+      <c r="C32">
+        <v>110.1623289176377</v>
+      </c>
+      <c r="D32">
+        <v>323.0952433559864</v>
+      </c>
+      <c r="E32">
+        <v>211.7565329771863</v>
+      </c>
+      <c r="F32">
+        <v>212.9329144383487</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>708.6</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10.649</v>
+      </c>
+      <c r="K32">
+        <v>4.1</v>
+      </c>
+      <c r="L32">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M32">
+        <v>39.11577638232466</v>
+      </c>
+      <c r="N32">
+        <v>-32.56677638232466</v>
+      </c>
+      <c r="O32">
+        <v>-9.770032914697397</v>
+      </c>
+      <c r="P32">
+        <v>-22.79674346762727</v>
+      </c>
+      <c r="Q32">
+        <v>-18.69674346762726</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06686678484684584</v>
+      </c>
+      <c r="T32">
+        <v>1.219635272178937</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.05022781551864566</v>
+      </c>
+      <c r="W32">
+        <v>0.1744731502892248</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1674260517288189</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1008926944795595</v>
+      </c>
+      <c r="C33">
+        <v>96.91256676282444</v>
+      </c>
+      <c r="D33">
+        <v>316.9432450157848</v>
+      </c>
+      <c r="E33">
+        <v>218.854296791798</v>
+      </c>
+      <c r="F33">
+        <v>220.0306782529603</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>708.6</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>10.649</v>
+      </c>
+      <c r="K33">
+        <v>4.1</v>
+      </c>
+      <c r="L33">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M33">
+        <v>40.41963559506882</v>
+      </c>
+      <c r="N33">
+        <v>-33.87063559506882</v>
+      </c>
+      <c r="O33">
+        <v>-10.16119067852065</v>
+      </c>
+      <c r="P33">
+        <v>-23.70944491654817</v>
+      </c>
+      <c r="Q33">
+        <v>-19.60944491654817</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06770108607651029</v>
+      </c>
+      <c r="T33">
+        <v>1.237311145688777</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.04860756340514097</v>
+      </c>
+      <c r="W33">
+        <v>0.1747707906024756</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1620252113504699</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1026366944795595</v>
+      </c>
+      <c r="C34">
+        <v>83.89270529530549</v>
+      </c>
+      <c r="D34">
+        <v>311.0211473628775</v>
+      </c>
+      <c r="E34">
+        <v>225.9520606064096</v>
+      </c>
+      <c r="F34">
+        <v>227.128442067572</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>708.6</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>10.649</v>
+      </c>
+      <c r="K34">
+        <v>4.1</v>
+      </c>
+      <c r="L34">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M34">
+        <v>41.72349480781297</v>
+      </c>
+      <c r="N34">
+        <v>-35.17449480781297</v>
+      </c>
+      <c r="O34">
+        <v>-10.55234844234389</v>
+      </c>
+      <c r="P34">
+        <v>-24.62214636546908</v>
+      </c>
+      <c r="Q34">
+        <v>-20.52214636546908</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06855992557763543</v>
+      </c>
+      <c r="T34">
+        <v>1.255506897831259</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.04708857704873032</v>
+      </c>
+      <c r="W34">
+        <v>0.1750498283961482</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1569619234957677</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1043806944795595</v>
+      </c>
+      <c r="C35">
+        <v>71.09009378295781</v>
+      </c>
+      <c r="D35">
+        <v>305.3162996651414</v>
+      </c>
+      <c r="E35">
+        <v>233.0498244210212</v>
+      </c>
+      <c r="F35">
+        <v>234.2262058821836</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>708.6</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>10.649</v>
+      </c>
+      <c r="K35">
+        <v>4.1</v>
+      </c>
+      <c r="L35">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M35">
+        <v>43.02735402055713</v>
+      </c>
+      <c r="N35">
+        <v>-36.47835402055713</v>
+      </c>
+      <c r="O35">
+        <v>-10.94350620616714</v>
+      </c>
+      <c r="P35">
+        <v>-25.53484781438999</v>
+      </c>
+      <c r="Q35">
+        <v>-21.43484781438999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06944440207879418</v>
+      </c>
+      <c r="T35">
+        <v>1.274245806754114</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.04566165047149606</v>
+      </c>
+      <c r="W35">
+        <v>0.1753119548083862</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1522055015716535</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1061246944795595</v>
+      </c>
+      <c r="C36">
+        <v>58.4929929502633</v>
+      </c>
+      <c r="D36">
+        <v>299.8169626470585</v>
+      </c>
+      <c r="E36">
+        <v>240.1475882356328</v>
+      </c>
+      <c r="F36">
+        <v>241.3239696967952</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>708.6</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>10.649</v>
+      </c>
+      <c r="K36">
+        <v>4.1</v>
+      </c>
+      <c r="L36">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M36">
+        <v>44.33121323330128</v>
+      </c>
+      <c r="N36">
+        <v>-37.78221323330128</v>
+      </c>
+      <c r="O36">
+        <v>-11.33466396999039</v>
+      </c>
+      <c r="P36">
+        <v>-26.4475492633109</v>
+      </c>
+      <c r="Q36">
+        <v>-22.3475492633109</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.07035568089816983</v>
+      </c>
+      <c r="T36">
+        <v>1.293552561401903</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.04431866075174618</v>
+      </c>
+      <c r="W36">
+        <v>0.1755586620199042</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1477288691724872</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1078686944795595</v>
+      </c>
+      <c r="C37">
+        <v>46.09049434518636</v>
+      </c>
+      <c r="D37">
+        <v>294.5122278565932</v>
+      </c>
+      <c r="E37">
+        <v>247.2453520502445</v>
+      </c>
+      <c r="F37">
+        <v>248.4217335114068</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>708.6</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>10.649</v>
+      </c>
+      <c r="K37">
+        <v>4.1</v>
+      </c>
+      <c r="L37">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M37">
+        <v>45.63507244604543</v>
+      </c>
+      <c r="N37">
+        <v>-39.08607244604543</v>
+      </c>
+      <c r="O37">
+        <v>-11.72582173381363</v>
+      </c>
+      <c r="P37">
+        <v>-27.3602507122318</v>
+      </c>
+      <c r="Q37">
+        <v>-23.2602507122318</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.07129499906583399</v>
+      </c>
+      <c r="T37">
+        <v>1.313453370038856</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.04305241330169629</v>
+      </c>
+      <c r="W37">
+        <v>0.1757912716764784</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1435080443389876</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1096126944795595</v>
+      </c>
+      <c r="C38">
+        <v>33.87244811720024</v>
+      </c>
+      <c r="D38">
+        <v>289.3919454432187</v>
+      </c>
+      <c r="E38">
+        <v>254.3431158648561</v>
+      </c>
+      <c r="F38">
+        <v>255.5194973260184</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>708.6</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>10.649</v>
+      </c>
+      <c r="K38">
+        <v>4.1</v>
+      </c>
+      <c r="L38">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M38">
+        <v>46.93893165878958</v>
+      </c>
+      <c r="N38">
+        <v>-40.38993165878959</v>
+      </c>
+      <c r="O38">
+        <v>-12.11697949763687</v>
+      </c>
+      <c r="P38">
+        <v>-28.27295216115271</v>
+      </c>
+      <c r="Q38">
+        <v>-24.17295216115271</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.07226367092623764</v>
+      </c>
+      <c r="T38">
+        <v>1.333976078945713</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.04185651293220473</v>
+      </c>
+      <c r="W38">
+        <v>0.176010958574354</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1395217097740158</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1113566944795595</v>
+      </c>
+      <c r="C39">
+        <v>21.82939820032254</v>
+      </c>
+      <c r="D39">
+        <v>284.4466593409526</v>
+      </c>
+      <c r="E39">
+        <v>261.4408796794677</v>
+      </c>
+      <c r="F39">
+        <v>262.6172611406301</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>708.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>10.649</v>
+      </c>
+      <c r="K39">
+        <v>4.1</v>
+      </c>
+      <c r="L39">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M39">
+        <v>48.24279087153375</v>
+      </c>
+      <c r="N39">
+        <v>-41.69379087153375</v>
+      </c>
+      <c r="O39">
+        <v>-12.50813726146012</v>
+      </c>
+      <c r="P39">
+        <v>-29.18565361007363</v>
+      </c>
+      <c r="Q39">
+        <v>-25.08565361007363</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.07326309427427316</v>
+      </c>
+      <c r="T39">
+        <v>1.355150302421042</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.04072525582592892</v>
+      </c>
+      <c r="W39">
+        <v>0.1762187705047769</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1357508527530964</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1131006944795595</v>
+      </c>
+      <c r="C40">
+        <v>9.952524030256541</v>
+      </c>
+      <c r="D40">
+        <v>279.6675489854982</v>
+      </c>
+      <c r="E40">
+        <v>268.5386434940793</v>
+      </c>
+      <c r="F40">
+        <v>269.7150249552417</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>708.6</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>10.649</v>
+      </c>
+      <c r="K40">
+        <v>4.1</v>
+      </c>
+      <c r="L40">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M40">
+        <v>49.5466500842779</v>
+      </c>
+      <c r="N40">
+        <v>-42.9976500842779</v>
+      </c>
+      <c r="O40">
+        <v>-12.89929502528337</v>
+      </c>
+      <c r="P40">
+        <v>-30.09835505899453</v>
+      </c>
+      <c r="Q40">
+        <v>-25.99835505899453</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07429475708514854</v>
+      </c>
+      <c r="T40">
+        <v>1.377007565363316</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.03965353856735185</v>
+      </c>
+      <c r="W40">
+        <v>0.1764156449651775</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1321784618911728</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1148446944795595</v>
+      </c>
+      <c r="C41">
+        <v>-1.766411960140488</v>
+      </c>
+      <c r="D41">
+        <v>275.0463768097129</v>
+      </c>
+      <c r="E41">
+        <v>275.6364073086909</v>
+      </c>
+      <c r="F41">
+        <v>276.8127887698533</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>708.6</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>10.649</v>
+      </c>
+      <c r="K41">
+        <v>4.1</v>
+      </c>
+      <c r="L41">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M41">
+        <v>50.85050929702206</v>
+      </c>
+      <c r="N41">
+        <v>-44.30150929702206</v>
+      </c>
+      <c r="O41">
+        <v>-13.29045278910662</v>
+      </c>
+      <c r="P41">
+        <v>-31.01105650791544</v>
+      </c>
+      <c r="Q41">
+        <v>-26.91105650791544</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07536024490621655</v>
+      </c>
+      <c r="T41">
+        <v>1.399581459877469</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.03863678116818897</v>
+      </c>
+      <c r="W41">
+        <v>0.1766024232994037</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1287892705606299</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1165886944795596</v>
+      </c>
+      <c r="C42">
+        <v>-13.33511172455553</v>
+      </c>
+      <c r="D42">
+        <v>270.5754408599094</v>
+      </c>
+      <c r="E42">
+        <v>282.7341711233025</v>
+      </c>
+      <c r="F42">
+        <v>283.9105525844649</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>708.6</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10.649</v>
+      </c>
+      <c r="K42">
+        <v>4.1</v>
+      </c>
+      <c r="L42">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M42">
+        <v>52.15436850976621</v>
+      </c>
+      <c r="N42">
+        <v>-45.60536850976621</v>
+      </c>
+      <c r="O42">
+        <v>-13.68161055292986</v>
+      </c>
+      <c r="P42">
+        <v>-31.92375795683635</v>
+      </c>
+      <c r="Q42">
+        <v>-27.82375795683635</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07646124898798684</v>
+      </c>
+      <c r="T42">
+        <v>1.422907817542094</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.03767086163898426</v>
+      </c>
+      <c r="W42">
+        <v>0.1767798627169186</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1255695387966141</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1183326944795595</v>
+      </c>
+      <c r="C43">
+        <v>-24.760784439448</v>
+      </c>
+      <c r="D43">
+        <v>266.2475319596286</v>
+      </c>
+      <c r="E43">
+        <v>289.8319349379142</v>
+      </c>
+      <c r="F43">
+        <v>291.0083163990766</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>708.6</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10.649</v>
+      </c>
+      <c r="K43">
+        <v>4.1</v>
+      </c>
+      <c r="L43">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M43">
+        <v>53.45822772251037</v>
+      </c>
+      <c r="N43">
+        <v>-46.90922772251037</v>
+      </c>
+      <c r="O43">
+        <v>-14.07276831675311</v>
+      </c>
+      <c r="P43">
+        <v>-32.83645940575726</v>
+      </c>
+      <c r="Q43">
+        <v>-28.73645940575726</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.0775995752420205</v>
+      </c>
+      <c r="T43">
+        <v>1.44702489919535</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.03675206013559439</v>
+      </c>
+      <c r="W43">
+        <v>0.1769486465530913</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1225068671186479</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1200766944795595</v>
+      </c>
+      <c r="C44">
+        <v>-36.05018529395397</v>
+      </c>
+      <c r="D44">
+        <v>262.0558949197342</v>
+      </c>
+      <c r="E44">
+        <v>296.9296987525258</v>
+      </c>
+      <c r="F44">
+        <v>298.1060802136882</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>708.6</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10.649</v>
+      </c>
+      <c r="K44">
+        <v>4.1</v>
+      </c>
+      <c r="L44">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M44">
+        <v>54.76208693525452</v>
+      </c>
+      <c r="N44">
+        <v>-48.21308693525452</v>
+      </c>
+      <c r="O44">
+        <v>-14.46392608057636</v>
+      </c>
+      <c r="P44">
+        <v>-33.74916085467817</v>
+      </c>
+      <c r="Q44">
+        <v>-29.64916085467816</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07877715412550361</v>
+      </c>
+      <c r="T44">
+        <v>1.47197360435389</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.0358770110847469</v>
+      </c>
+      <c r="W44">
+        <v>0.177109393063732</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1195900369491564</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1218206944795595</v>
+      </c>
+      <c r="C45">
+        <v>-47.20965067247693</v>
+      </c>
+      <c r="D45">
+        <v>257.9941933558229</v>
+      </c>
+      <c r="E45">
+        <v>304.0274625671374</v>
+      </c>
+      <c r="F45">
+        <v>305.2038440282998</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>708.6</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10.649</v>
+      </c>
+      <c r="K45">
+        <v>4.1</v>
+      </c>
+      <c r="L45">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M45">
+        <v>56.06594614799868</v>
+      </c>
+      <c r="N45">
+        <v>-49.51694614799868</v>
+      </c>
+      <c r="O45">
+        <v>-14.8550838443996</v>
+      </c>
+      <c r="P45">
+        <v>-34.66186230359908</v>
+      </c>
+      <c r="Q45">
+        <v>-30.56186230359908</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07999605156630191</v>
+      </c>
+      <c r="T45">
+        <v>1.497797702675888</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.0350426619897528</v>
+      </c>
+      <c r="W45">
+        <v>0.1772626629924824</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.116808873299176</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1235646944795595</v>
+      </c>
+      <c r="C46">
+        <v>-58.24513011536641</v>
+      </c>
+      <c r="D46">
+        <v>254.056477727545</v>
+      </c>
+      <c r="E46">
+        <v>311.125226381749</v>
+      </c>
+      <c r="F46">
+        <v>312.3016078429114</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>708.6</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10.649</v>
+      </c>
+      <c r="K46">
+        <v>4.1</v>
+      </c>
+      <c r="L46">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M46">
+        <v>57.36980536074283</v>
+      </c>
+      <c r="N46">
+        <v>-50.82080536074283</v>
+      </c>
+      <c r="O46">
+        <v>-15.24624160822285</v>
+      </c>
+      <c r="P46">
+        <v>-35.57456375251998</v>
+      </c>
+      <c r="Q46">
+        <v>-31.47456375251998</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.08125848105855732</v>
+      </c>
+      <c r="T46">
+        <v>1.524544090223672</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.03424623785362205</v>
+      </c>
+      <c r="W46">
+        <v>0.1774089661062896</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1141541261787401</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1253086944795595</v>
+      </c>
+      <c r="C47">
+        <v>-69.16221539674024</v>
+      </c>
+      <c r="D47">
+        <v>250.2371562607829</v>
+      </c>
+      <c r="E47">
+        <v>318.2229901963607</v>
+      </c>
+      <c r="F47">
+        <v>319.3993716575231</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>708.6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>10.649</v>
+      </c>
+      <c r="K47">
+        <v>4.1</v>
+      </c>
+      <c r="L47">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M47">
+        <v>58.673664573487</v>
+      </c>
+      <c r="N47">
+        <v>-52.124664573487</v>
+      </c>
+      <c r="O47">
+        <v>-15.6373993720461</v>
+      </c>
+      <c r="P47">
+        <v>-36.4872652014409</v>
+      </c>
+      <c r="Q47">
+        <v>-32.3872652014409</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.08256681707780381</v>
+      </c>
+      <c r="T47">
+        <v>1.552263073682284</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.03348521034576378</v>
+      </c>
+      <c r="W47">
+        <v>0.1775487668594832</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1116173678192126</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1270526944795595</v>
+      </c>
+      <c r="C48">
+        <v>-79.96616701832863</v>
+      </c>
+      <c r="D48">
+        <v>246.5309684538061</v>
+      </c>
+      <c r="E48">
+        <v>325.3207540109723</v>
+      </c>
+      <c r="F48">
+        <v>326.4971354721347</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>708.6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10.649</v>
+      </c>
+      <c r="K48">
+        <v>4.1</v>
+      </c>
+      <c r="L48">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M48">
+        <v>59.97752378623115</v>
+      </c>
+      <c r="N48">
+        <v>-53.42852378623115</v>
+      </c>
+      <c r="O48">
+        <v>-16.02855713586934</v>
+      </c>
+      <c r="P48">
+        <v>-37.3999666503618</v>
+      </c>
+      <c r="Q48">
+        <v>-33.2999666503618</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.08392360998665202</v>
+      </c>
+      <c r="T48">
+        <v>1.581008686157882</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03275727099042109</v>
+      </c>
+      <c r="W48">
+        <v>0.1776824893190596</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1091909033014036</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1287966944795595</v>
+      </c>
+      <c r="C49">
+        <v>-90.66193838332472</v>
+      </c>
+      <c r="D49">
+        <v>242.9329609034216</v>
+      </c>
+      <c r="E49">
+        <v>332.4185178255839</v>
+      </c>
+      <c r="F49">
+        <v>333.5948992867463</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>708.6</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>10.649</v>
+      </c>
+      <c r="K49">
+        <v>4.1</v>
+      </c>
+      <c r="L49">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M49">
+        <v>61.2813829989753</v>
+      </c>
+      <c r="N49">
+        <v>-54.7323829989753</v>
+      </c>
+      <c r="O49">
+        <v>-16.41971489969259</v>
+      </c>
+      <c r="P49">
+        <v>-38.31266809928272</v>
+      </c>
+      <c r="Q49">
+        <v>-34.21266809928272</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08533160262790962</v>
+      </c>
+      <c r="T49">
+        <v>1.610839038726899</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03206030777785893</v>
+      </c>
+      <c r="W49">
+        <v>0.1778105214612073</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1068676925928631</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1305406944795595</v>
+      </c>
+      <c r="C50">
+        <v>-101.2541978838464</v>
+      </c>
+      <c r="D50">
+        <v>239.4384652175115</v>
+      </c>
+      <c r="E50">
+        <v>339.5162816401955</v>
+      </c>
+      <c r="F50">
+        <v>340.6926631013579</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>708.6</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>10.649</v>
+      </c>
+      <c r="K50">
+        <v>4.1</v>
+      </c>
+      <c r="L50">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M50">
+        <v>62.58524221171945</v>
+      </c>
+      <c r="N50">
+        <v>-56.03624221171945</v>
+      </c>
+      <c r="O50">
+        <v>-16.81087266351583</v>
+      </c>
+      <c r="P50">
+        <v>-39.22536954820362</v>
+      </c>
+      <c r="Q50">
+        <v>-35.12536954820362</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.08679374883229249</v>
+      </c>
+      <c r="T50">
+        <v>1.64181671254857</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.03139238469915354</v>
+      </c>
+      <c r="W50">
+        <v>0.1779332189307655</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.1046412823305118</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1322846944795595</v>
+      </c>
+      <c r="C51">
+        <v>-111.7473491091146</v>
+      </c>
+      <c r="D51">
+        <v>236.043077806855</v>
+      </c>
+      <c r="E51">
+        <v>346.6140454548071</v>
+      </c>
+      <c r="F51">
+        <v>347.7904269159695</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>708.6</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>10.649</v>
+      </c>
+      <c r="K51">
+        <v>4.1</v>
+      </c>
+      <c r="L51">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M51">
+        <v>63.8891014244636</v>
+      </c>
+      <c r="N51">
+        <v>-57.3401014244636</v>
+      </c>
+      <c r="O51">
+        <v>-17.20203042733908</v>
+      </c>
+      <c r="P51">
+        <v>-40.13807099712452</v>
+      </c>
+      <c r="Q51">
+        <v>-36.03807099712452</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.08831323410351392</v>
+      </c>
+      <c r="T51">
+        <v>1.674009197108346</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03075172378692592</v>
+      </c>
+      <c r="W51">
+        <v>0.1780509083403417</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1025057459564197</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1340286944795595</v>
+      </c>
+      <c r="C52">
+        <v>-122.1455493582839</v>
+      </c>
+      <c r="D52">
+        <v>232.7426413722972</v>
+      </c>
+      <c r="E52">
+        <v>353.7118092694188</v>
+      </c>
+      <c r="F52">
+        <v>354.8881907305812</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>708.6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>10.649</v>
+      </c>
+      <c r="K52">
+        <v>4.1</v>
+      </c>
+      <c r="L52">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M52">
+        <v>65.19296063720776</v>
+      </c>
+      <c r="N52">
+        <v>-58.64396063720776</v>
+      </c>
+      <c r="O52">
+        <v>-17.59318819116233</v>
+      </c>
+      <c r="P52">
+        <v>-41.05077244604544</v>
+      </c>
+      <c r="Q52">
+        <v>-36.95077244604543</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.0898934987855842</v>
+      </c>
+      <c r="T52">
+        <v>1.707489381050513</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.0301366893111874</v>
+      </c>
+      <c r="W52">
+        <v>0.1781638901735349</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1004556310372913</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1357726944795595</v>
+      </c>
+      <c r="C53">
+        <v>-132.4527266215739</v>
+      </c>
+      <c r="D53">
+        <v>229.5332279236189</v>
+      </c>
+      <c r="E53">
+        <v>360.8095730840304</v>
+      </c>
+      <c r="F53">
+        <v>361.9859545451928</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>708.6</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>10.649</v>
+      </c>
+      <c r="K53">
+        <v>4.1</v>
+      </c>
+      <c r="L53">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M53">
+        <v>66.49681984995192</v>
+      </c>
+      <c r="N53">
+        <v>-59.94781984995192</v>
+      </c>
+      <c r="O53">
+        <v>-17.98434595498557</v>
+      </c>
+      <c r="P53">
+        <v>-41.96347389496634</v>
+      </c>
+      <c r="Q53">
+        <v>-37.86347389496634</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.09153826406692266</v>
+      </c>
+      <c r="T53">
+        <v>1.742336103112768</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.02954577383449745</v>
+      </c>
+      <c r="W53">
+        <v>0.1782724413466028</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.09848591278165819</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1375166944795595</v>
+      </c>
+      <c r="C54">
+        <v>-142.6725951755384</v>
+      </c>
+      <c r="D54">
+        <v>226.411123184266</v>
+      </c>
+      <c r="E54">
+        <v>367.907336898642</v>
+      </c>
+      <c r="F54">
+        <v>369.0837183598044</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>708.6</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>10.649</v>
+      </c>
+      <c r="K54">
+        <v>4.1</v>
+      </c>
+      <c r="L54">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M54">
+        <v>67.80067906269608</v>
+      </c>
+      <c r="N54">
+        <v>-61.25167906269608</v>
+      </c>
+      <c r="O54">
+        <v>-18.37550371880882</v>
+      </c>
+      <c r="P54">
+        <v>-42.87617534388725</v>
+      </c>
+      <c r="Q54">
+        <v>-38.77617534388725</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.09325156123498354</v>
+      </c>
+      <c r="T54">
+        <v>1.778634771927617</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.02897758587614173</v>
+      </c>
+      <c r="W54">
+        <v>0.1783768174745528</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.0965919529204724</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1392606944795595</v>
+      </c>
+      <c r="C55">
+        <v>-152.8086699226563</v>
+      </c>
+      <c r="D55">
+        <v>223.3728122517598</v>
+      </c>
+      <c r="E55">
+        <v>375.0051007132537</v>
+      </c>
+      <c r="F55">
+        <v>376.1814821744161</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>708.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>10.649</v>
+      </c>
+      <c r="K55">
+        <v>4.1</v>
+      </c>
+      <c r="L55">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M55">
+        <v>69.10453827544023</v>
+      </c>
+      <c r="N55">
+        <v>-62.55553827544023</v>
+      </c>
+      <c r="O55">
+        <v>-18.76666148263207</v>
+      </c>
+      <c r="P55">
+        <v>-43.78887679280817</v>
+      </c>
+      <c r="Q55">
+        <v>-39.68887679280817</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.0950377646655151</v>
+      </c>
+      <c r="T55">
+        <v>1.816478064947354</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.02843083897281831</v>
+      </c>
+      <c r="W55">
+        <v>0.1784772548806933</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.09476946324272761</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1410046944795595</v>
+      </c>
+      <c r="C56">
+        <v>-162.8642795916352</v>
+      </c>
+      <c r="D56">
+        <v>220.4149663973925</v>
+      </c>
+      <c r="E56">
+        <v>382.1028645278653</v>
+      </c>
+      <c r="F56">
+        <v>383.2792459890277</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>708.6</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>10.649</v>
+      </c>
+      <c r="K56">
+        <v>4.1</v>
+      </c>
+      <c r="L56">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M56">
+        <v>70.40839748818439</v>
+      </c>
+      <c r="N56">
+        <v>-63.85939748818439</v>
+      </c>
+      <c r="O56">
+        <v>-19.15781924645532</v>
+      </c>
+      <c r="P56">
+        <v>-44.70157824172907</v>
+      </c>
+      <c r="Q56">
+        <v>-40.60157824172907</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09690162911476542</v>
+      </c>
+      <c r="T56">
+        <v>1.855966718533166</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.02790434195480315</v>
+      </c>
+      <c r="W56">
+        <v>0.1785739723829027</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.09301447318267719</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1427486944795595</v>
+      </c>
+      <c r="C57">
+        <v>-172.8425789026502</v>
+      </c>
+      <c r="D57">
+        <v>217.5344309009892</v>
+      </c>
+      <c r="E57">
+        <v>389.2006283424769</v>
+      </c>
+      <c r="F57">
+        <v>390.3770098036393</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>708.6</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>10.649</v>
+      </c>
+      <c r="K57">
+        <v>4.1</v>
+      </c>
+      <c r="L57">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M57">
+        <v>71.71225670092855</v>
+      </c>
+      <c r="N57">
+        <v>-65.16325670092854</v>
+      </c>
+      <c r="O57">
+        <v>-19.54897701027856</v>
+      </c>
+      <c r="P57">
+        <v>-45.61427969064998</v>
+      </c>
+      <c r="Q57">
+        <v>-41.51427969064998</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09884833198398243</v>
+      </c>
+      <c r="T57">
+        <v>1.897210423389458</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.02739699028289764</v>
+      </c>
+      <c r="W57">
+        <v>0.1786671728850317</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.09132330094299224</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1444926944795595</v>
+      </c>
+      <c r="C58">
+        <v>-182.7465597909861</v>
+      </c>
+      <c r="D58">
+        <v>214.7282138272649</v>
+      </c>
+      <c r="E58">
+        <v>396.2983921570886</v>
+      </c>
+      <c r="F58">
+        <v>397.474773618251</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>708.6</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>10.649</v>
+      </c>
+      <c r="K58">
+        <v>4.1</v>
+      </c>
+      <c r="L58">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M58">
+        <v>73.01611591367271</v>
+      </c>
+      <c r="N58">
+        <v>-66.4671159136727</v>
+      </c>
+      <c r="O58">
+        <v>-19.94013477410181</v>
+      </c>
+      <c r="P58">
+        <v>-46.52698113957089</v>
+      </c>
+      <c r="Q58">
+        <v>-42.42698113957089</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1008835213472548</v>
+      </c>
+      <c r="T58">
+        <v>1.940328842102855</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.02690775831356017</v>
+      </c>
+      <c r="W58">
+        <v>0.178757044797799</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.08969252771186731</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1462366944795595</v>
+      </c>
+      <c r="C59">
+        <v>-192.5790617730262</v>
+      </c>
+      <c r="D59">
+        <v>211.9934756598364</v>
+      </c>
+      <c r="E59">
+        <v>403.3961559717002</v>
+      </c>
+      <c r="F59">
+        <v>404.5725374328626</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>708.6</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>10.649</v>
+      </c>
+      <c r="K59">
+        <v>4.1</v>
+      </c>
+      <c r="L59">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M59">
+        <v>74.31997512641686</v>
+      </c>
+      <c r="N59">
+        <v>-67.77097512641686</v>
+      </c>
+      <c r="O59">
+        <v>-20.33129253792506</v>
+      </c>
+      <c r="P59">
+        <v>-47.43968258849181</v>
+      </c>
+      <c r="Q59">
+        <v>-43.3396825884918</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1030133706809119</v>
+      </c>
+      <c r="T59">
+        <v>1.985452768663387</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.02643569237823456</v>
+      </c>
+      <c r="W59">
+        <v>0.1788437633101183</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.08811897459411522</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1479806944795595</v>
+      </c>
+      <c r="C60">
+        <v>-202.3427815300869</v>
+      </c>
+      <c r="D60">
+        <v>209.3275197173872</v>
+      </c>
+      <c r="E60">
+        <v>410.4939197863117</v>
+      </c>
+      <c r="F60">
+        <v>411.6703012474741</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>708.6</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>10.649</v>
+      </c>
+      <c r="K60">
+        <v>4.1</v>
+      </c>
+      <c r="L60">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M60">
+        <v>75.62383433916099</v>
+      </c>
+      <c r="N60">
+        <v>-69.07483433916099</v>
+      </c>
+      <c r="O60">
+        <v>-20.7224503017483</v>
+      </c>
+      <c r="P60">
+        <v>-48.35238403741269</v>
+      </c>
+      <c r="Q60">
+        <v>-44.25238403741269</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1052446414114097</v>
+      </c>
+      <c r="T60">
+        <v>2.032725453631562</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02597990457860984</v>
+      </c>
+      <c r="W60">
+        <v>0.1789274915289094</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.08659968192869949</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1497246944795596</v>
+      </c>
+      <c r="C61">
+        <v>-212.0402817780953</v>
+      </c>
+      <c r="D61">
+        <v>206.7277832839904</v>
+      </c>
+      <c r="E61">
+        <v>417.5916836009234</v>
+      </c>
+      <c r="F61">
+        <v>418.7680650620858</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>708.6</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>10.649</v>
+      </c>
+      <c r="K61">
+        <v>4.1</v>
+      </c>
+      <c r="L61">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M61">
+        <v>76.92769355190516</v>
+      </c>
+      <c r="N61">
+        <v>-70.37869355190516</v>
+      </c>
+      <c r="O61">
+        <v>-21.11360806557155</v>
+      </c>
+      <c r="P61">
+        <v>-49.26508548633361</v>
+      </c>
+      <c r="Q61">
+        <v>-45.16508548633361</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1075847546165661</v>
+      </c>
+      <c r="T61">
+        <v>2.082304123232332</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.02553956721287068</v>
+      </c>
+      <c r="W61">
+        <v>0.1790083815029957</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.08513189070956906</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1514686944795595</v>
+      </c>
+      <c r="C62">
+        <v>-221.6739994844346</v>
+      </c>
+      <c r="D62">
+        <v>204.1918293922628</v>
+      </c>
+      <c r="E62">
+        <v>424.689447415535</v>
+      </c>
+      <c r="F62">
+        <v>425.8658288766974</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>708.6</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>10.649</v>
+      </c>
+      <c r="K62">
+        <v>4.1</v>
+      </c>
+      <c r="L62">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M62">
+        <v>78.23155276464932</v>
+      </c>
+      <c r="N62">
+        <v>-71.68255276464932</v>
+      </c>
+      <c r="O62">
+        <v>-21.5047658293948</v>
+      </c>
+      <c r="P62">
+        <v>-50.17778693525452</v>
+      </c>
+      <c r="Q62">
+        <v>-46.07778693525452</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1100418734819802</v>
+      </c>
+      <c r="T62">
+        <v>2.13436172631314</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.02511390775932283</v>
+      </c>
+      <c r="W62">
+        <v>0.1790865751446124</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.08371302586440954</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1532126944795595</v>
+      </c>
+      <c r="C63">
+        <v>-231.2462534873366</v>
+      </c>
+      <c r="D63">
+        <v>201.7173392039724</v>
+      </c>
+      <c r="E63">
+        <v>431.7872112301466</v>
+      </c>
+      <c r="F63">
+        <v>432.963592691309</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>708.6</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>10.649</v>
+      </c>
+      <c r="K63">
+        <v>4.1</v>
+      </c>
+      <c r="L63">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M63">
+        <v>79.53541197739347</v>
+      </c>
+      <c r="N63">
+        <v>-72.98641197739346</v>
+      </c>
+      <c r="O63">
+        <v>-21.89592359321804</v>
+      </c>
+      <c r="P63">
+        <v>-51.09048838417542</v>
+      </c>
+      <c r="Q63">
+        <v>-46.99048838417542</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1126249984430567</v>
+      </c>
+      <c r="T63">
+        <v>2.18908895006476</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.0247022043534323</v>
+      </c>
+      <c r="W63">
+        <v>0.1791622050602745</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.08234068117810778</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1549566944795595</v>
+      </c>
+      <c r="C64">
+        <v>-240.7592515678961</v>
+      </c>
+      <c r="D64">
+        <v>199.3021049380245</v>
+      </c>
+      <c r="E64">
+        <v>438.8849750447583</v>
+      </c>
+      <c r="F64">
+        <v>440.0613565059207</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>708.6</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>10.649</v>
+      </c>
+      <c r="K64">
+        <v>4.1</v>
+      </c>
+      <c r="L64">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M64">
+        <v>80.83927119013764</v>
+      </c>
+      <c r="N64">
+        <v>-74.29027119013763</v>
+      </c>
+      <c r="O64">
+        <v>-22.28708135704129</v>
+      </c>
+      <c r="P64">
+        <v>-52.00318983309634</v>
+      </c>
+      <c r="Q64">
+        <v>-47.90318983309634</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1153440773494529</v>
+      </c>
+      <c r="T64">
+        <v>2.246696554013832</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.02430378170257048</v>
+      </c>
+      <c r="W64">
+        <v>0.1792353953012378</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.08101260567523505</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1567006944795595</v>
+      </c>
+      <c r="C65">
+        <v>-250.2150970200411</v>
+      </c>
+      <c r="D65">
+        <v>196.9440233004912</v>
+      </c>
+      <c r="E65">
+        <v>445.9827388593699</v>
+      </c>
+      <c r="F65">
+        <v>447.1591203205323</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>708.6</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>10.649</v>
+      </c>
+      <c r="K65">
+        <v>4.1</v>
+      </c>
+      <c r="L65">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M65">
+        <v>82.14313040288178</v>
+      </c>
+      <c r="N65">
+        <v>-75.59413040288177</v>
+      </c>
+      <c r="O65">
+        <v>-22.67823912086453</v>
+      </c>
+      <c r="P65">
+        <v>-52.91589128201724</v>
+      </c>
+      <c r="Q65">
+        <v>-48.81589128201724</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1182101334940327</v>
+      </c>
+      <c r="T65">
+        <v>2.307418082500692</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02391800738983127</v>
+      </c>
+      <c r="W65">
+        <v>0.179306262042488</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.07972669129943766</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1584446944795595</v>
+      </c>
+      <c r="C66">
+        <v>-259.6157947595543</v>
+      </c>
+      <c r="D66">
+        <v>194.6410893755896</v>
+      </c>
+      <c r="E66">
+        <v>453.0805026739815</v>
+      </c>
+      <c r="F66">
+        <v>454.2568841351439</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>708.6</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>10.649</v>
+      </c>
+      <c r="K66">
+        <v>4.1</v>
+      </c>
+      <c r="L66">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M66">
+        <v>83.44698961562594</v>
+      </c>
+      <c r="N66">
+        <v>-76.89798961562593</v>
+      </c>
+      <c r="O66">
+        <v>-23.06939688468778</v>
+      </c>
+      <c r="P66">
+        <v>-53.82859273093815</v>
+      </c>
+      <c r="Q66">
+        <v>-49.72859273093815</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.121235414979978</v>
+      </c>
+      <c r="T66">
+        <v>2.371513029236823</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.02354428852436516</v>
+      </c>
+      <c r="W66">
+        <v>0.1793749141980741</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.07848096174788388</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1601886944795595</v>
+      </c>
+      <c r="C67">
+        <v>-268.9632570094387</v>
+      </c>
+      <c r="D67">
+        <v>192.3913909403168</v>
+      </c>
+      <c r="E67">
+        <v>460.1782664885931</v>
+      </c>
+      <c r="F67">
+        <v>461.3546479497555</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>708.6</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>10.649</v>
+      </c>
+      <c r="K67">
+        <v>4.1</v>
+      </c>
+      <c r="L67">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M67">
+        <v>84.7508488283701</v>
+      </c>
+      <c r="N67">
+        <v>-78.20184882837009</v>
+      </c>
+      <c r="O67">
+        <v>-23.46055464851102</v>
+      </c>
+      <c r="P67">
+        <v>-54.74129417985907</v>
+      </c>
+      <c r="Q67">
+        <v>-50.64129417985907</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1244335696936917</v>
+      </c>
+      <c r="T67">
+        <v>2.439270544357875</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02318206870091339</v>
+      </c>
+      <c r="W67">
+        <v>0.1794414539796422</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.07727356233637805</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1619326944795595</v>
+      </c>
+      <c r="C68">
+        <v>-278.2593085955137</v>
+      </c>
+      <c r="D68">
+        <v>190.1931031688535</v>
+      </c>
+      <c r="E68">
+        <v>467.2760303032048</v>
+      </c>
+      <c r="F68">
+        <v>468.4524117643672</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>708.6</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>10.649</v>
+      </c>
+      <c r="K68">
+        <v>4.1</v>
+      </c>
+      <c r="L68">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M68">
+        <v>86.05470804111425</v>
+      </c>
+      <c r="N68">
+        <v>-79.50570804111425</v>
+      </c>
+      <c r="O68">
+        <v>-23.85171241233427</v>
+      </c>
+      <c r="P68">
+        <v>-55.65399562877997</v>
+      </c>
+      <c r="Q68">
+        <v>-51.55399562877997</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1278198511552709</v>
+      </c>
+      <c r="T68">
+        <v>2.511013795662518</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.02283082523574803</v>
+      </c>
+      <c r="W68">
+        <v>0.1795059774041931</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.07610275078582684</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1636766944795595</v>
+      </c>
+      <c r="C69">
+        <v>-287.5056918830627</v>
+      </c>
+      <c r="D69">
+        <v>188.0444836959161</v>
+      </c>
+      <c r="E69">
+        <v>474.3737941178164</v>
+      </c>
+      <c r="F69">
+        <v>475.5501755789788</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>708.6</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>10.649</v>
+      </c>
+      <c r="K69">
+        <v>4.1</v>
+      </c>
+      <c r="L69">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M69">
+        <v>87.35856725385841</v>
+      </c>
+      <c r="N69">
+        <v>-80.8095672538584</v>
+      </c>
+      <c r="O69">
+        <v>-24.24287017615752</v>
+      </c>
+      <c r="P69">
+        <v>-56.56669707770088</v>
+      </c>
+      <c r="Q69">
+        <v>-52.46669707770088</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1314113617963397</v>
+      </c>
+      <c r="T69">
+        <v>2.587105122803807</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02249006665013985</v>
+      </c>
+      <c r="W69">
+        <v>0.1795685747563693</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.07496688883379954</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1654206944795595</v>
+      </c>
+      <c r="C70">
+        <v>-296.7040713826027</v>
+      </c>
+      <c r="D70">
+        <v>185.9438680109877</v>
+      </c>
+      <c r="E70">
+        <v>481.471557932428</v>
+      </c>
+      <c r="F70">
+        <v>482.6479393935904</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>708.6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>10.649</v>
+      </c>
+      <c r="K70">
+        <v>4.1</v>
+      </c>
+      <c r="L70">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M70">
+        <v>88.66242646660257</v>
+      </c>
+      <c r="N70">
+        <v>-82.11342646660256</v>
+      </c>
+      <c r="O70">
+        <v>-24.63402793998077</v>
+      </c>
+      <c r="P70">
+        <v>-57.47939852662179</v>
+      </c>
+      <c r="Q70">
+        <v>-53.37939852662179</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1352273418524753</v>
+      </c>
+      <c r="T70">
+        <v>2.667952157891426</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02215933037587309</v>
+      </c>
+      <c r="W70">
+        <v>0.1796293310099521</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.0738644345862437</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1671646944795595</v>
+      </c>
+      <c r="C71">
+        <v>-305.8560380503619</v>
+      </c>
+      <c r="D71">
+        <v>183.8896651578402</v>
+      </c>
+      <c r="E71">
+        <v>488.5693217470397</v>
+      </c>
+      <c r="F71">
+        <v>489.7457032082021</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>708.6</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>10.649</v>
+      </c>
+      <c r="K71">
+        <v>4.1</v>
+      </c>
+      <c r="L71">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M71">
+        <v>89.96628567934673</v>
+      </c>
+      <c r="N71">
+        <v>-83.41728567934672</v>
+      </c>
+      <c r="O71">
+        <v>-25.02518570380402</v>
+      </c>
+      <c r="P71">
+        <v>-58.39209997554271</v>
+      </c>
+      <c r="Q71">
+        <v>-54.2920999755427</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1392895141702971</v>
+      </c>
+      <c r="T71">
+        <v>2.754015130726633</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02183818066028072</v>
+      </c>
+      <c r="W71">
+        <v>0.1796883262127064</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.07279393553426916</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1689086944795595</v>
+      </c>
+      <c r="C72">
+        <v>-314.9631133068157</v>
+      </c>
+      <c r="D72">
+        <v>181.880353715998</v>
+      </c>
+      <c r="E72">
+        <v>495.6670855616513</v>
+      </c>
+      <c r="F72">
+        <v>496.8434670228137</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>708.6</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>10.649</v>
+      </c>
+      <c r="K72">
+        <v>4.1</v>
+      </c>
+      <c r="L72">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M72">
+        <v>91.27014489209087</v>
+      </c>
+      <c r="N72">
+        <v>-84.72114489209086</v>
+      </c>
+      <c r="O72">
+        <v>-25.41634346762726</v>
+      </c>
+      <c r="P72">
+        <v>-59.30480142446361</v>
+      </c>
+      <c r="Q72">
+        <v>-55.2048014244636</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1436224979759737</v>
+      </c>
+      <c r="T72">
+        <v>2.845815635084188</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02152620665084815</v>
+      </c>
+      <c r="W72">
+        <v>0.1797456358382392</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.07175402216949389</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1706526944795595</v>
+      </c>
+      <c r="C73">
+        <v>-324.0267527946152</v>
+      </c>
+      <c r="D73">
+        <v>179.9144780428101</v>
+      </c>
+      <c r="E73">
+        <v>502.7648493762629</v>
+      </c>
+      <c r="F73">
+        <v>503.9412308374253</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>708.6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>10.649</v>
+      </c>
+      <c r="K73">
+        <v>4.1</v>
+      </c>
+      <c r="L73">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M73">
+        <v>92.57400410483503</v>
+      </c>
+      <c r="N73">
+        <v>-86.02500410483502</v>
+      </c>
+      <c r="O73">
+        <v>-25.80750123145051</v>
+      </c>
+      <c r="P73">
+        <v>-60.21750287338452</v>
+      </c>
+      <c r="Q73">
+        <v>-56.11750287338452</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1482543082510072</v>
+      </c>
+      <c r="T73">
+        <v>2.94394720870778</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02122302064168127</v>
+      </c>
+      <c r="W73">
+        <v>0.1798013311081232</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.07074340213893759</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1723966944795595</v>
+      </c>
+      <c r="C74">
+        <v>-333.0483498954127</v>
+      </c>
+      <c r="D74">
+        <v>177.9906447566242</v>
+      </c>
+      <c r="E74">
+        <v>509.8626131908745</v>
+      </c>
+      <c r="F74">
+        <v>511.0389946520369</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>708.6</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>10.649</v>
+      </c>
+      <c r="K74">
+        <v>4.1</v>
+      </c>
+      <c r="L74">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M74">
+        <v>93.87786331757917</v>
+      </c>
+      <c r="N74">
+        <v>-87.32886331757916</v>
+      </c>
+      <c r="O74">
+        <v>-26.19865899527375</v>
+      </c>
+      <c r="P74">
+        <v>-61.13020432230542</v>
+      </c>
+      <c r="Q74">
+        <v>-57.03020432230542</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1532169621171146</v>
+      </c>
+      <c r="T74">
+        <v>3.049088180447344</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02092825646610236</v>
+      </c>
+      <c r="W74">
+        <v>0.179855479287177</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.06976085488700789</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1741406944795595</v>
+      </c>
+      <c r="C75">
+        <v>-342.0292390234405</v>
+      </c>
+      <c r="D75">
+        <v>176.1075194432081</v>
+      </c>
+      <c r="E75">
+        <v>516.9603770054862</v>
+      </c>
+      <c r="F75">
+        <v>518.1367584666485</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>708.6</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>10.649</v>
+      </c>
+      <c r="K75">
+        <v>4.1</v>
+      </c>
+      <c r="L75">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M75">
+        <v>95.18172253032334</v>
+      </c>
+      <c r="N75">
+        <v>-88.63272253032333</v>
+      </c>
+      <c r="O75">
+        <v>-26.589816759097</v>
+      </c>
+      <c r="P75">
+        <v>-62.04290577122633</v>
+      </c>
+      <c r="Q75">
+        <v>-57.94290577122633</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.158547219973304</v>
+      </c>
+      <c r="T75">
+        <v>3.162017372315764</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02064156802136123</v>
+      </c>
+      <c r="W75">
+        <v>0.179908143954476</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.06880522673787082</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1758846944795595</v>
+      </c>
+      <c r="C76">
+        <v>-350.9706987122048</v>
+      </c>
+      <c r="D76">
+        <v>174.2638235690554</v>
+      </c>
+      <c r="E76">
+        <v>524.0581408200978</v>
+      </c>
+      <c r="F76">
+        <v>525.2345222812602</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>708.6</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>10.649</v>
+      </c>
+      <c r="K76">
+        <v>4.1</v>
+      </c>
+      <c r="L76">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M76">
+        <v>96.4855817430675</v>
+      </c>
+      <c r="N76">
+        <v>-89.93658174306749</v>
+      </c>
+      <c r="O76">
+        <v>-26.98097452292025</v>
+      </c>
+      <c r="P76">
+        <v>-62.95560722014724</v>
+      </c>
+      <c r="Q76">
+        <v>-58.85560722014724</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1642874976645849</v>
+      </c>
+      <c r="T76">
+        <v>3.283633425097139</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02036262791296446</v>
+      </c>
+      <c r="W76">
+        <v>0.1799593852523884</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.06787542637654831</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1776286944795595</v>
+      </c>
+      <c r="C77">
+        <v>-359.8739545092979</v>
+      </c>
+      <c r="D77">
+        <v>172.4583315865738</v>
+      </c>
+      <c r="E77">
+        <v>531.1559046347094</v>
+      </c>
+      <c r="F77">
+        <v>532.3322860958717</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>708.6</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>10.649</v>
+      </c>
+      <c r="K77">
+        <v>4.1</v>
+      </c>
+      <c r="L77">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M77">
+        <v>97.78944095581164</v>
+      </c>
+      <c r="N77">
+        <v>-91.24044095581164</v>
+      </c>
+      <c r="O77">
+        <v>-27.37213228674349</v>
+      </c>
+      <c r="P77">
+        <v>-63.86830866906814</v>
+      </c>
+      <c r="Q77">
+        <v>-59.76830866906814</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1704869975711684</v>
+      </c>
+      <c r="T77">
+        <v>3.414978762101025</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02009112620745827</v>
+      </c>
+      <c r="W77">
+        <v>0.1800092601156899</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.06697042069152759</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1793726944795596</v>
+      </c>
+      <c r="C78">
+        <v>-368.7401816931022</v>
+      </c>
+      <c r="D78">
+        <v>170.6898682173812</v>
+      </c>
+      <c r="E78">
+        <v>538.253668449321</v>
+      </c>
+      <c r="F78">
+        <v>539.4300499104834</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>708.6</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>10.649</v>
+      </c>
+      <c r="K78">
+        <v>4.1</v>
+      </c>
+      <c r="L78">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M78">
+        <v>99.0933001685558</v>
+      </c>
+      <c r="N78">
+        <v>-92.54430016855579</v>
+      </c>
+      <c r="O78">
+        <v>-27.76329005056674</v>
+      </c>
+      <c r="P78">
+        <v>-64.78101011798906</v>
+      </c>
+      <c r="Q78">
+        <v>-60.68101011798905</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1772031224699671</v>
+      </c>
+      <c r="T78">
+        <v>3.557269543855235</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01982676928367592</v>
+      </c>
+      <c r="W78">
+        <v>0.1800578224825888</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.0660892309455865</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1811166944795595</v>
+      </c>
+      <c r="C79">
+        <v>-377.5705078240405</v>
+      </c>
+      <c r="D79">
+        <v>168.9573059010545</v>
+      </c>
+      <c r="E79">
+        <v>545.3514322639327</v>
+      </c>
+      <c r="F79">
+        <v>546.527813725095</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>708.6</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>10.649</v>
+      </c>
+      <c r="K79">
+        <v>4.1</v>
+      </c>
+      <c r="L79">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M79">
+        <v>100.3971593813</v>
+      </c>
+      <c r="N79">
+        <v>-93.84815938129995</v>
+      </c>
+      <c r="O79">
+        <v>-28.15444781438999</v>
+      </c>
+      <c r="P79">
+        <v>-65.69371156690997</v>
+      </c>
+      <c r="Q79">
+        <v>-61.59371156690997</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1845032582295308</v>
+      </c>
+      <c r="T79">
+        <v>3.711933437066332</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01956927877349831</v>
+      </c>
+      <c r="W79">
+        <v>0.1801051234893083</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.06523092924499441</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1828606944795595</v>
+      </c>
+      <c r="C80">
+        <v>-386.3660151420129</v>
+      </c>
+      <c r="D80">
+        <v>167.2595623976938</v>
+      </c>
+      <c r="E80">
+        <v>552.4491960785443</v>
+      </c>
+      <c r="F80">
+        <v>553.6255775397067</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>708.6</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>10.649</v>
+      </c>
+      <c r="K80">
+        <v>4.1</v>
+      </c>
+      <c r="L80">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M80">
+        <v>101.7010185940441</v>
+      </c>
+      <c r="N80">
+        <v>-95.15201859404411</v>
+      </c>
+      <c r="O80">
+        <v>-28.54560557821323</v>
+      </c>
+      <c r="P80">
+        <v>-66.60641301583088</v>
+      </c>
+      <c r="Q80">
+        <v>-62.50641301583088</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1924670426945095</v>
+      </c>
+      <c r="T80">
+        <v>3.880657684205711</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01931839058409449</v>
+      </c>
+      <c r="W80">
+        <v>0.1801512116497019</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.06439463528031497</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1846046944795596</v>
+      </c>
+      <c r="C81">
+        <v>-395.1277428207275</v>
+      </c>
+      <c r="D81">
+        <v>165.5955985335908</v>
+      </c>
+      <c r="E81">
+        <v>559.546959893156</v>
+      </c>
+      <c r="F81">
+        <v>560.7233413543183</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>708.6</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>10.649</v>
+      </c>
+      <c r="K81">
+        <v>4.1</v>
+      </c>
+      <c r="L81">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M81">
+        <v>103.0048778067883</v>
+      </c>
+      <c r="N81">
+        <v>-96.45587780678828</v>
+      </c>
+      <c r="O81">
+        <v>-28.93676334203648</v>
+      </c>
+      <c r="P81">
+        <v>-67.51911446475179</v>
+      </c>
+      <c r="Q81">
+        <v>-63.41911446475179</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2011892828228196</v>
+      </c>
+      <c r="T81">
+        <v>4.065450907263126</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.0190738539944224</v>
+      </c>
+      <c r="W81">
+        <v>0.1801961330212246</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.06357951331474143</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1863486944795595</v>
+      </c>
+      <c r="C82">
+        <v>-403.8566890887963</v>
+      </c>
+      <c r="D82">
+        <v>163.9644160801336</v>
+      </c>
+      <c r="E82">
+        <v>566.6447237077675</v>
+      </c>
+      <c r="F82">
+        <v>567.8211051689299</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>708.6</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>10.649</v>
+      </c>
+      <c r="K82">
+        <v>4.1</v>
+      </c>
+      <c r="L82">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M82">
+        <v>104.3087370195324</v>
+      </c>
+      <c r="N82">
+        <v>-97.75973701953241</v>
+      </c>
+      <c r="O82">
+        <v>-29.32792110585972</v>
+      </c>
+      <c r="P82">
+        <v>-68.43181591367269</v>
+      </c>
+      <c r="Q82">
+        <v>-64.3318159136727</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2107837469639605</v>
+      </c>
+      <c r="T82">
+        <v>4.268723452626283</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01883543081949213</v>
+      </c>
+      <c r="W82">
+        <v>0.1802399313584593</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.06278476939830713</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1880926944795595</v>
+      </c>
+      <c r="C83">
+        <v>-412.5538132266925</v>
+      </c>
+      <c r="D83">
+        <v>162.365055756849</v>
+      </c>
+      <c r="E83">
+        <v>573.7424875223792</v>
+      </c>
+      <c r="F83">
+        <v>574.9188689835415</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>708.6</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>10.649</v>
+      </c>
+      <c r="K83">
+        <v>4.1</v>
+      </c>
+      <c r="L83">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M83">
+        <v>105.6125962322766</v>
+      </c>
+      <c r="N83">
+        <v>-99.06359623227658</v>
+      </c>
+      <c r="O83">
+        <v>-29.71907886968297</v>
+      </c>
+      <c r="P83">
+        <v>-69.34451736259361</v>
+      </c>
+      <c r="Q83">
+        <v>-65.24451736259361</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2213881546989058</v>
+      </c>
+      <c r="T83">
+        <v>4.493393108027665</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01860289463653543</v>
+      </c>
+      <c r="W83">
+        <v>0.1802826482552684</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.0620096487884515</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1898366944795595</v>
+      </c>
+      <c r="C84">
+        <v>-421.2200374479613</v>
+      </c>
+      <c r="D84">
+        <v>160.7965953501919</v>
+      </c>
+      <c r="E84">
+        <v>580.8402513369908</v>
+      </c>
+      <c r="F84">
+        <v>582.0166327981532</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>708.6</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>10.649</v>
+      </c>
+      <c r="K84">
+        <v>4.1</v>
+      </c>
+      <c r="L84">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M84">
+        <v>106.9164554450207</v>
+      </c>
+      <c r="N84">
+        <v>-100.3674554450207</v>
+      </c>
+      <c r="O84">
+        <v>-30.11023663350622</v>
+      </c>
+      <c r="P84">
+        <v>-70.25721881151452</v>
+      </c>
+      <c r="Q84">
+        <v>-66.15721881151453</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2331708299599561</v>
+      </c>
+      <c r="T84">
+        <v>4.743026058473647</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.0183760300677972</v>
+      </c>
+      <c r="W84">
+        <v>0.1803243232765457</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.061253433559324</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1915806944795596</v>
+      </c>
+      <c r="C85">
+        <v>-429.8562486724394</v>
+      </c>
+      <c r="D85">
+        <v>159.2581479403254</v>
+      </c>
+      <c r="E85">
+        <v>587.9380151516025</v>
+      </c>
+      <c r="F85">
+        <v>589.1143966127648</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>708.6</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>10.649</v>
+      </c>
+      <c r="K85">
+        <v>4.1</v>
+      </c>
+      <c r="L85">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M85">
+        <v>108.2203146577649</v>
+      </c>
+      <c r="N85">
+        <v>-101.6713146577649</v>
+      </c>
+      <c r="O85">
+        <v>-30.50139439732947</v>
+      </c>
+      <c r="P85">
+        <v>-71.16992026043543</v>
+      </c>
+      <c r="Q85">
+        <v>-67.06992026043544</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2463397023105418</v>
+      </c>
+      <c r="T85">
+        <v>5.022027591325038</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01815463211517313</v>
+      </c>
+      <c r="W85">
+        <v>0.1803649940804427</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.06051544038391055</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1933246944795595</v>
+      </c>
+      <c r="C86">
+        <v>-438.4633001986454</v>
+      </c>
+      <c r="D86">
+        <v>157.748860228731</v>
+      </c>
+      <c r="E86">
+        <v>595.035778966214</v>
+      </c>
+      <c r="F86">
+        <v>596.2121604273764</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>708.6</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>10.649</v>
+      </c>
+      <c r="K86">
+        <v>4.1</v>
+      </c>
+      <c r="L86">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M86">
+        <v>109.524173870509</v>
+      </c>
+      <c r="N86">
+        <v>-102.975173870509</v>
+      </c>
+      <c r="O86">
+        <v>-30.89255216115271</v>
+      </c>
+      <c r="P86">
+        <v>-72.08262170935633</v>
+      </c>
+      <c r="Q86">
+        <v>-67.98262170935634</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2611546837049505</v>
+      </c>
+      <c r="T86">
+        <v>5.335904315782851</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01793850554237345</v>
+      </c>
+      <c r="W86">
+        <v>0.180404696531866</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.05979501847457824</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1950686944795595</v>
+      </c>
+      <c r="C87">
+        <v>-447.0420132819681</v>
+      </c>
+      <c r="D87">
+        <v>156.2679109600199</v>
+      </c>
+      <c r="E87">
+        <v>602.1335427808257</v>
+      </c>
+      <c r="F87">
+        <v>603.309924241988</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>708.6</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>10.649</v>
+      </c>
+      <c r="K87">
+        <v>4.1</v>
+      </c>
+      <c r="L87">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M87">
+        <v>110.8280330832532</v>
+      </c>
+      <c r="N87">
+        <v>-104.2790330832532</v>
+      </c>
+      <c r="O87">
+        <v>-31.28370992497596</v>
+      </c>
+      <c r="P87">
+        <v>-72.99532315827724</v>
+      </c>
+      <c r="Q87">
+        <v>-68.89532315827725</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2779449959519473</v>
+      </c>
+      <c r="T87">
+        <v>5.691631270168375</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01772746430069847</v>
+      </c>
+      <c r="W87">
+        <v>0.1804434648079617</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.05909154766899494</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1968126944795595</v>
+      </c>
+      <c r="C88">
+        <v>-455.5931786247839</v>
+      </c>
+      <c r="D88">
+        <v>154.8145094318158</v>
+      </c>
+      <c r="E88">
+        <v>609.2313065954373</v>
+      </c>
+      <c r="F88">
+        <v>610.4076880565997</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>708.6</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>10.649</v>
+      </c>
+      <c r="K88">
+        <v>4.1</v>
+      </c>
+      <c r="L88">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M88">
+        <v>112.1318922959974</v>
+      </c>
+      <c r="N88">
+        <v>-105.5828922959974</v>
+      </c>
+      <c r="O88">
+        <v>-31.6748676887992</v>
+      </c>
+      <c r="P88">
+        <v>-73.90802460719814</v>
+      </c>
+      <c r="Q88">
+        <v>-69.80802460719815</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2971339242342292</v>
+      </c>
+      <c r="T88">
+        <v>6.098176360894687</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0175213309948764</v>
+      </c>
+      <c r="W88">
+        <v>0.1804813314962412</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.05840443664958805</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1985566944795595</v>
+      </c>
+      <c r="C89">
+        <v>-464.1175577841872</v>
+      </c>
+      <c r="D89">
+        <v>153.3878940870241</v>
+      </c>
+      <c r="E89">
+        <v>616.3290704100489</v>
+      </c>
+      <c r="F89">
+        <v>617.5054518712112</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>708.6</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>10.649</v>
+      </c>
+      <c r="K89">
+        <v>4.1</v>
+      </c>
+      <c r="L89">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M89">
+        <v>113.4357515087415</v>
+      </c>
+      <c r="N89">
+        <v>-106.8867515087415</v>
+      </c>
+      <c r="O89">
+        <v>-32.06602545262245</v>
+      </c>
+      <c r="P89">
+        <v>-74.82072605611904</v>
+      </c>
+      <c r="Q89">
+        <v>-70.72072605611905</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3192749953291699</v>
+      </c>
+      <c r="T89">
+        <v>6.567266850194278</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01731993638573989</v>
+      </c>
+      <c r="W89">
+        <v>0.1805183276859396</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.05773312128579966</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2003006944795595</v>
+      </c>
+      <c r="C90">
+        <v>-472.6158845025969</v>
+      </c>
+      <c r="D90">
+        <v>151.9873311832259</v>
+      </c>
+      <c r="E90">
+        <v>623.4268342246605</v>
+      </c>
+      <c r="F90">
+        <v>624.6032156858229</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>708.6</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>10.649</v>
+      </c>
+      <c r="K90">
+        <v>4.1</v>
+      </c>
+      <c r="L90">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M90">
+        <v>114.7396107214857</v>
+      </c>
+      <c r="N90">
+        <v>-108.1906107214857</v>
+      </c>
+      <c r="O90">
+        <v>-32.45718321644569</v>
+      </c>
+      <c r="P90">
+        <v>-75.73342750503997</v>
+      </c>
+      <c r="Q90">
+        <v>-71.63342750503998</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3451062449399341</v>
+      </c>
+      <c r="T90">
+        <v>7.114539087710469</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01712311892681102</v>
+      </c>
+      <c r="W90">
+        <v>0.1805544830531448</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.05707706308937011</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2020446944795595</v>
+      </c>
+      <c r="C91">
+        <v>-481.0888659661264</v>
+      </c>
+      <c r="D91">
+        <v>150.6121135343081</v>
+      </c>
+      <c r="E91">
+        <v>630.5245980392722</v>
+      </c>
+      <c r="F91">
+        <v>631.7009795004345</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>708.6</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>10.649</v>
+      </c>
+      <c r="K91">
+        <v>4.1</v>
+      </c>
+      <c r="L91">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M91">
+        <v>116.0434699342298</v>
+      </c>
+      <c r="N91">
+        <v>-109.4944699342298</v>
+      </c>
+      <c r="O91">
+        <v>-32.84834098026894</v>
+      </c>
+      <c r="P91">
+        <v>-76.64612895396087</v>
+      </c>
+      <c r="Q91">
+        <v>-72.54612895396087</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.375634085389019</v>
+      </c>
+      <c r="T91">
+        <v>7.761315368411421</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01693072433212775</v>
+      </c>
+      <c r="W91">
+        <v>0.1805898259401881</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.05643574777375926</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2037886944795596</v>
+      </c>
+      <c r="C92">
+        <v>-489.5371839952477</v>
+      </c>
+      <c r="D92">
+        <v>149.2615593197985</v>
+      </c>
+      <c r="E92">
+        <v>637.6223618538838</v>
+      </c>
+      <c r="F92">
+        <v>638.7987433150462</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>708.6</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>10.649</v>
+      </c>
+      <c r="K92">
+        <v>4.1</v>
+      </c>
+      <c r="L92">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M92">
+        <v>117.347329146974</v>
+      </c>
+      <c r="N92">
+        <v>-110.798329146974</v>
+      </c>
+      <c r="O92">
+        <v>-33.2394987440922</v>
+      </c>
+      <c r="P92">
+        <v>-77.5588304028818</v>
+      </c>
+      <c r="Q92">
+        <v>-73.4588304028818</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4122674939279211</v>
+      </c>
+      <c r="T92">
+        <v>8.537446905252565</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.01674260517288189</v>
+      </c>
+      <c r="W92">
+        <v>0.1806243834297416</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.05580868390960636</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2055326944795596</v>
+      </c>
+      <c r="C93">
+        <v>-497.9614961719664</v>
+      </c>
+      <c r="D93">
+        <v>147.9350109576914</v>
+      </c>
+      <c r="E93">
+        <v>644.7201256684955</v>
+      </c>
+      <c r="F93">
+        <v>645.8965071296578</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>708.6</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>10.649</v>
+      </c>
+      <c r="K93">
+        <v>4.1</v>
+      </c>
+      <c r="L93">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M93">
+        <v>118.6511883597181</v>
+      </c>
+      <c r="N93">
+        <v>-112.1021883597181</v>
+      </c>
+      <c r="O93">
+        <v>-33.63065650791544</v>
+      </c>
+      <c r="P93">
+        <v>-78.47153185180269</v>
+      </c>
+      <c r="Q93">
+        <v>-74.3715318518027</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4570416599199122</v>
+      </c>
+      <c r="T93">
+        <v>9.486052116947294</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01655862050065241</v>
+      </c>
+      <c r="W93">
+        <v>0.1806581814140302</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.0551954016688414</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2072766944795595</v>
+      </c>
+      <c r="C94">
+        <v>-506.3624369074192</v>
+      </c>
+      <c r="D94">
+        <v>146.6318340368501</v>
+      </c>
+      <c r="E94">
+        <v>651.817889483107</v>
+      </c>
+      <c r="F94">
+        <v>652.9942709442694</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>708.6</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>10.649</v>
+      </c>
+      <c r="K94">
+        <v>4.1</v>
+      </c>
+      <c r="L94">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M94">
+        <v>119.9550475724623</v>
+      </c>
+      <c r="N94">
+        <v>-113.4060475724623</v>
+      </c>
+      <c r="O94">
+        <v>-34.02181427173868</v>
+      </c>
+      <c r="P94">
+        <v>-79.38423330072359</v>
+      </c>
+      <c r="Q94">
+        <v>-75.2842333007236</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5130093674099014</v>
+      </c>
+      <c r="T94">
+        <v>10.67180863156571</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01637863549521055</v>
+      </c>
+      <c r="W94">
+        <v>0.1806912446595298</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.0545954516507019</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2090206944795595</v>
+      </c>
+      <c r="C95">
+        <v>-514.7406184535366</v>
+      </c>
+      <c r="D95">
+        <v>145.3514163053444</v>
+      </c>
+      <c r="E95">
+        <v>658.9156532977187</v>
+      </c>
+      <c r="F95">
+        <v>660.092034758881</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>708.6</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>10.649</v>
+      </c>
+      <c r="K95">
+        <v>4.1</v>
+      </c>
+      <c r="L95">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M95">
+        <v>121.2589067852064</v>
+      </c>
+      <c r="N95">
+        <v>-114.7099067852064</v>
+      </c>
+      <c r="O95">
+        <v>-34.41297203556193</v>
+      </c>
+      <c r="P95">
+        <v>-80.29693474964452</v>
+      </c>
+      <c r="Q95">
+        <v>-76.19693474964453</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5849678484684588</v>
+      </c>
+      <c r="T95">
+        <v>12.19635272178938</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.01620252113504699</v>
+      </c>
+      <c r="W95">
+        <v>0.1807235968674919</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.05400840378349003</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2107646944795596</v>
+      </c>
+      <c r="C96">
+        <v>-523.0966318621597</v>
+      </c>
+      <c r="D96">
+        <v>144.093166711333</v>
+      </c>
+      <c r="E96">
+        <v>666.0134171123303</v>
+      </c>
+      <c r="F96">
+        <v>667.1897985734927</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>708.6</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>10.649</v>
+      </c>
+      <c r="K96">
+        <v>4.1</v>
+      </c>
+      <c r="L96">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M96">
+        <v>122.5627659979506</v>
+      </c>
+      <c r="N96">
+        <v>-116.0137659979506</v>
+      </c>
+      <c r="O96">
+        <v>-34.80412979938518</v>
+      </c>
+      <c r="P96">
+        <v>-81.20963619856542</v>
+      </c>
+      <c r="Q96">
+        <v>-77.10963619856543</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6809124898798689</v>
+      </c>
+      <c r="T96">
+        <v>14.22907817542095</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01603015388892947</v>
+      </c>
+      <c r="W96">
+        <v>0.1807552607306037</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.05343384629643155</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2125086944795595</v>
+      </c>
+      <c r="C97">
+        <v>-531.4310478947689</v>
+      </c>
+      <c r="D97">
+        <v>142.8565144933354</v>
+      </c>
+      <c r="E97">
+        <v>673.111180926942</v>
+      </c>
+      <c r="F97">
+        <v>674.2875623881043</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>708.6</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>10.649</v>
+      </c>
+      <c r="K97">
+        <v>4.1</v>
+      </c>
+      <c r="L97">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M97">
+        <v>123.8666252106948</v>
+      </c>
+      <c r="N97">
+        <v>-117.3176252106948</v>
+      </c>
+      <c r="O97">
+        <v>-35.19528756320842</v>
+      </c>
+      <c r="P97">
+        <v>-82.12233764748633</v>
+      </c>
+      <c r="Q97">
+        <v>-78.02233764748634</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.8152349878558429</v>
+      </c>
+      <c r="T97">
+        <v>17.07489381050515</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01586141542694074</v>
+      </c>
+      <c r="W97">
+        <v>0.180786257986071</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.05287138475646913</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2142526944795596</v>
+      </c>
+      <c r="C98">
+        <v>-539.7444178857669</v>
+      </c>
+      <c r="D98">
+        <v>141.640908316949</v>
+      </c>
+      <c r="E98">
+        <v>680.2089447415535</v>
+      </c>
+      <c r="F98">
+        <v>681.3853262027159</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>708.6</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>10.649</v>
+      </c>
+      <c r="K98">
+        <v>4.1</v>
+      </c>
+      <c r="L98">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M98">
+        <v>125.1704844234389</v>
+      </c>
+      <c r="N98">
+        <v>-118.6214844234389</v>
+      </c>
+      <c r="O98">
+        <v>-35.58644532703167</v>
+      </c>
+      <c r="P98">
+        <v>-83.03503909640723</v>
+      </c>
+      <c r="Q98">
+        <v>-78.93503909640724</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.016718734819802</v>
+      </c>
+      <c r="T98">
+        <v>21.34361726313139</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.01569619234957677</v>
+      </c>
+      <c r="W98">
+        <v>0.1808166094653827</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.05232064116525592</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2159966944795595</v>
+      </c>
+      <c r="C99">
+        <v>-548.0372745620555</v>
+      </c>
+      <c r="D99">
+        <v>140.445815455272</v>
+      </c>
+      <c r="E99">
+        <v>687.3067085561652</v>
+      </c>
+      <c r="F99">
+        <v>688.4830900173275</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>708.6</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>10.649</v>
+      </c>
+      <c r="K99">
+        <v>4.1</v>
+      </c>
+      <c r="L99">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M99">
+        <v>126.4743436361831</v>
+      </c>
+      <c r="N99">
+        <v>-119.9253436361831</v>
+      </c>
+      <c r="O99">
+        <v>-35.97760309085491</v>
+      </c>
+      <c r="P99">
+        <v>-83.94774054532814</v>
+      </c>
+      <c r="Q99">
+        <v>-79.84774054532815</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.352524979759736</v>
+      </c>
+      <c r="T99">
+        <v>28.45815635084185</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01553437593360175</v>
+      </c>
+      <c r="W99">
+        <v>0.1808463351409973</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.05178125311200588</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2177406944795596</v>
+      </c>
+      <c r="C100">
+        <v>-556.3101328214709</v>
+      </c>
+      <c r="D100">
+        <v>139.2707210104681</v>
+      </c>
+      <c r="E100">
+        <v>694.4044723707767</v>
+      </c>
+      <c r="F100">
+        <v>695.5808538319391</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>708.6</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>10.649</v>
+      </c>
+      <c r="K100">
+        <v>4.1</v>
+      </c>
+      <c r="L100">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M100">
+        <v>127.7782028489272</v>
+      </c>
+      <c r="N100">
+        <v>-121.2292028489272</v>
+      </c>
+      <c r="O100">
+        <v>-36.36876085467816</v>
+      </c>
+      <c r="P100">
+        <v>-84.86044199424904</v>
+      </c>
+      <c r="Q100">
+        <v>-80.76044199424905</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.024137469639603</v>
+      </c>
+      <c r="T100">
+        <v>42.68723452626278</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01537586189346296</v>
+      </c>
+      <c r="W100">
+        <v>0.1808754541701709</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.05125287297820991</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2194846944795595</v>
+      </c>
+      <c r="C101">
+        <v>-564.5634904724639</v>
+      </c>
+      <c r="D101">
+        <v>138.1151271740869</v>
+      </c>
+      <c r="E101">
+        <v>701.5022361853884</v>
+      </c>
+      <c r="F101">
+        <v>702.6786176465507</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>708.6</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>10.649</v>
+      </c>
+      <c r="K101">
+        <v>4.1</v>
+      </c>
+      <c r="L101">
+        <v>6.549000000000001</v>
+      </c>
+      <c r="M101">
+        <v>129.0820620616714</v>
+      </c>
+      <c r="N101">
+        <v>-122.5330620616714</v>
+      </c>
+      <c r="O101">
+        <v>-36.75991861850141</v>
+      </c>
+      <c r="P101">
+        <v>-85.77314344316994</v>
+      </c>
+      <c r="Q101">
+        <v>-81.67314344316995</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.038974939279205</v>
+      </c>
+      <c r="T101">
+        <v>85.37446905252554</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01522055015716536</v>
+      </c>
+      <c r="W101">
+        <v>0.1809039849361287</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.05073516719055127</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
